--- a/raw_data/20200818_saline/20200818_Sensor2_Test_32.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_32.xlsx
@@ -1,1626 +1,2042 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF0E1B5-81F4-4DB2-AD21-1269FF8EDC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>28273.606248</v>
       </c>
       <c r="B2" s="1">
-        <v>7.853780</v>
+        <v>7.8537800000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>1247.280000</v>
+        <v>1247.28</v>
       </c>
       <c r="D2" s="1">
-        <v>-308.825000</v>
+        <v>-308.82499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>28283.991980</v>
+        <v>28283.991979999999</v>
       </c>
       <c r="G2" s="1">
-        <v>7.856664</v>
+        <v>7.8566640000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>1271.970000</v>
+        <v>1271.97</v>
       </c>
       <c r="I2" s="1">
-        <v>-266.466000</v>
+        <v>-266.46600000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>28294.751692</v>
+        <v>28294.751692000002</v>
       </c>
       <c r="L2" s="1">
-        <v>7.859653</v>
+        <v>7.8596529999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>1307.690000</v>
+        <v>1307.69</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.612000</v>
+        <v>-203.61199999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>28305.044397</v>
+        <v>28305.044397000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.862512</v>
+        <v>7.8625119999999997</v>
       </c>
       <c r="R2" s="1">
-        <v>1319.350000</v>
+        <v>1319.35</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.903000</v>
+        <v>-184.90299999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>28315.304913</v>
       </c>
       <c r="V2" s="1">
-        <v>7.865362</v>
+        <v>7.8653620000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>1332.330000</v>
+        <v>1332.33</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.217000</v>
+        <v>-171.21700000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>28325.383620</v>
+        <v>28325.383620000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>7.868162</v>
+        <v>7.8681619999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1349.260000</v>
+        <v>1349.26</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.677000</v>
+        <v>-168.67699999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>28335.649318</v>
       </c>
       <c r="AF2" s="1">
-        <v>7.871014</v>
+        <v>7.8710139999999997</v>
       </c>
       <c r="AG2" s="1">
-        <v>1362.260000</v>
+        <v>1362.26</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.521000</v>
+        <v>-178.52099999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>28345.801929</v>
+        <v>28345.801929000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.873834</v>
+        <v>7.8738340000000004</v>
       </c>
       <c r="AL2" s="1">
-        <v>1382.730000</v>
+        <v>1382.73</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.297000</v>
+        <v>-208.297</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>28356.377131</v>
+        <v>28356.377131000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>7.876771</v>
+        <v>7.8767709999999997</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1404.230000</v>
+        <v>1404.23</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.091000</v>
+        <v>-252.09100000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>28367.350163</v>
+        <v>28367.350162999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>7.879819</v>
+        <v>7.8798190000000004</v>
       </c>
       <c r="AV2" s="1">
-        <v>1428.660000</v>
+        <v>1428.66</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.158000</v>
+        <v>-312.15800000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>28378.547309</v>
+        <v>28378.547309000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>7.882930</v>
+        <v>7.88293</v>
       </c>
       <c r="BA2" s="1">
-        <v>1447.890000</v>
+        <v>1447.89</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.304000</v>
+        <v>-364.30399999999997</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>28389.120263</v>
+        <v>28389.120263000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>7.885867</v>
+        <v>7.8858670000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1532.630000</v>
+        <v>1532.63</v>
       </c>
       <c r="BG2" s="1">
-        <v>-613.112000</v>
+        <v>-613.11199999999997</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>28400.117361</v>
+        <v>28400.117361000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.888921</v>
+        <v>7.8889209999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1686.490000</v>
+        <v>1686.49</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1059.540000</v>
+        <v>-1059.54</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>28411.219811</v>
+        <v>28411.219810999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.892006</v>
+        <v>7.8920060000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1980.480000</v>
+        <v>1980.48</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1833.410000</v>
+        <v>-1833.41</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>28423.111378</v>
+        <v>28423.111378000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.895309</v>
+        <v>7.8953090000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2366.480000</v>
+        <v>2366.48</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2730.170000</v>
+        <v>-2730.17</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>28434.134454</v>
+        <v>28434.134453999999</v>
       </c>
       <c r="BY2" s="1">
         <v>7.898371</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2848.910000</v>
+        <v>2848.91</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3704.890000</v>
+        <v>-3704.89</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>28445.122325</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.901423</v>
+        <v>7.9014230000000003</v>
       </c>
       <c r="CE2" s="1">
-        <v>4258.710000</v>
+        <v>4258.71</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6076.620000</v>
+        <v>-6076.62</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>28274.287751</v>
       </c>
       <c r="B3" s="1">
-        <v>7.853969</v>
+        <v>7.8539690000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1247.020000</v>
+        <v>1247.02</v>
       </c>
       <c r="D3" s="1">
-        <v>-308.633000</v>
+        <v>-308.63299999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>28284.637769</v>
+        <v>28284.637769000001</v>
       </c>
       <c r="G3" s="1">
-        <v>7.856844</v>
+        <v>7.8568439999999997</v>
       </c>
       <c r="H3" s="1">
-        <v>1272.100000</v>
+        <v>1272.0999999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-266.593000</v>
+        <v>-266.59300000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>28295.168829</v>
+        <v>28295.168828999998</v>
       </c>
       <c r="L3" s="1">
         <v>7.859769</v>
       </c>
       <c r="M3" s="1">
-        <v>1307.530000</v>
+        <v>1307.53</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.663000</v>
+        <v>-203.66300000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>28305.397822</v>
+        <v>28305.397821999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.862611</v>
+        <v>7.8626110000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1319.370000</v>
+        <v>1319.37</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.918000</v>
+        <v>-184.91800000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>28315.664050</v>
+        <v>28315.664049999999</v>
       </c>
       <c r="V3" s="1">
         <v>7.865462</v>
       </c>
       <c r="W3" s="1">
-        <v>1332.410000</v>
+        <v>1332.41</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.009000</v>
+        <v>-171.00899999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>28325.773475</v>
+        <v>28325.773475000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>7.868270</v>
+        <v>7.8682699999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1349.390000</v>
+        <v>1349.39</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.726000</v>
+        <v>-168.726</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>28336.030742</v>
+        <v>28336.030741999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.871120</v>
+        <v>7.8711200000000003</v>
       </c>
       <c r="AG3" s="1">
-        <v>1362.260000</v>
+        <v>1362.26</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.487000</v>
+        <v>-178.48699999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>28346.222536</v>
+        <v>28346.222536000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.873951</v>
+        <v>7.8739509999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1382.740000</v>
+        <v>1382.74</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.300000</v>
+        <v>-208.3</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>28356.821548</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.876895</v>
+        <v>7.8768950000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1404.230000</v>
+        <v>1404.23</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.110000</v>
+        <v>-252.11</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>28367.788782</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.879941</v>
+        <v>7.8799409999999996</v>
       </c>
       <c r="AV3" s="1">
-        <v>1428.640000</v>
+        <v>1428.64</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.157000</v>
+        <v>-312.15699999999998</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>28378.909389</v>
       </c>
       <c r="AZ3" s="1">
-        <v>7.883030</v>
+        <v>7.8830299999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1447.930000</v>
+        <v>1447.93</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.320000</v>
+        <v>-364.32</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>28389.487071</v>
       </c>
       <c r="BE3" s="1">
-        <v>7.885969</v>
+        <v>7.8859690000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1532.640000</v>
+        <v>1532.64</v>
       </c>
       <c r="BG3" s="1">
-        <v>-613.115000</v>
+        <v>-613.11500000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>28400.495776</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.889027</v>
+        <v>7.8890269999999996</v>
       </c>
       <c r="BK3" s="1">
-        <v>1686.380000</v>
+        <v>1686.38</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1059.650000</v>
+        <v>-1059.6500000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>28411.642371</v>
+        <v>28411.642371000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.892123</v>
+        <v>7.8921229999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1980.210000</v>
+        <v>1980.21</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1833.600000</v>
+        <v>-1833.6</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>28423.607393</v>
+        <v>28423.607392999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>7.895446</v>
+        <v>7.8954459999999997</v>
       </c>
       <c r="BU3" s="1">
-        <v>2365.750000</v>
+        <v>2365.75</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2730.260000</v>
+        <v>-2730.26</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>28434.602675</v>
+        <v>28434.602674999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.898501</v>
+        <v>7.8985010000000004</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2848.530000</v>
+        <v>2848.53</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3705.020000</v>
+        <v>-3705.02</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>28445.718053</v>
+        <v>28445.718053000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.901588</v>
+        <v>7.9015880000000003</v>
       </c>
       <c r="CE3" s="1">
-        <v>4277.990000</v>
+        <v>4277.99</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6062.130000</v>
+        <v>-6062.13</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>28274.642887</v>
+        <v>28274.642887000002</v>
       </c>
       <c r="B4" s="1">
-        <v>7.854067</v>
+        <v>7.8540669999999997</v>
       </c>
       <c r="C4" s="1">
-        <v>1247.240000</v>
+        <v>1247.24</v>
       </c>
       <c r="D4" s="1">
-        <v>-308.780000</v>
+        <v>-308.77999999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>28285.024649</v>
+        <v>28285.024648999999</v>
       </c>
       <c r="G4" s="1">
-        <v>7.856951</v>
+        <v>7.8569509999999996</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.170000</v>
+        <v>1273.17</v>
       </c>
       <c r="I4" s="1">
-        <v>-266.740000</v>
+        <v>-266.74</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>28295.514572</v>
       </c>
       <c r="L4" s="1">
-        <v>7.859865</v>
+        <v>7.8598650000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1307.910000</v>
+        <v>1307.9100000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.190000</v>
+        <v>-203.19</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>28305.743534</v>
+        <v>28305.743534000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.862707</v>
+        <v>7.8627070000000003</v>
       </c>
       <c r="R4" s="1">
-        <v>1319.320000</v>
+        <v>1319.32</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.949000</v>
+        <v>-184.94900000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>28316.009236</v>
+        <v>28316.009236000002</v>
       </c>
       <c r="V4" s="1">
         <v>7.865558</v>
       </c>
       <c r="W4" s="1">
-        <v>1332.260000</v>
+        <v>1332.26</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.158000</v>
+        <v>-171.15799999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>28326.194083</v>
+        <v>28326.194082999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>7.868387</v>
+        <v>7.8683870000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1349.320000</v>
+        <v>1349.32</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.700000</v>
+        <v>-168.7</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>28336.520294</v>
+        <v>28336.520294000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.871256</v>
+        <v>7.8712559999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1362.280000</v>
+        <v>1362.28</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.437000</v>
+        <v>-178.43700000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>28346.564777</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.874046</v>
+        <v>7.8740459999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1382.740000</v>
+        <v>1382.74</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.301000</v>
+        <v>-208.30099999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>28357.172227</v>
+        <v>28357.172226999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.876992</v>
+        <v>7.8769920000000004</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1404.230000</v>
+        <v>1404.23</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.108000</v>
+        <v>-252.108</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>28368.153643</v>
+        <v>28368.153643000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.880043</v>
+        <v>7.8800429999999997</v>
       </c>
       <c r="AV4" s="1">
-        <v>1428.660000</v>
+        <v>1428.66</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.193000</v>
+        <v>-312.19299999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>28379.267998</v>
+        <v>28379.267997999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.883130</v>
+        <v>7.8831300000000004</v>
       </c>
       <c r="BA4" s="1">
-        <v>1447.880000</v>
+        <v>1447.88</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.331000</v>
+        <v>-364.33100000000002</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>28390.208787</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.886169</v>
+        <v>7.8861689999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1532.670000</v>
+        <v>1532.67</v>
       </c>
       <c r="BG4" s="1">
-        <v>-613.092000</v>
+        <v>-613.09199999999998</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>28401.254655</v>
+        <v>28401.254655000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>7.889237</v>
+        <v>7.8892369999999996</v>
       </c>
       <c r="BK4" s="1">
-        <v>1686.470000</v>
+        <v>1686.47</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1059.640000</v>
+        <v>-1059.6400000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>28412.046609</v>
+        <v>28412.046609000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.892235</v>
+        <v>7.8922350000000003</v>
       </c>
       <c r="BP4" s="1">
-        <v>1980.130000</v>
+        <v>1980.13</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1833.690000</v>
+        <v>-1833.69</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>28424.017224</v>
+        <v>28424.017223999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.895560</v>
+        <v>7.8955599999999997</v>
       </c>
       <c r="BU4" s="1">
-        <v>2364.960000</v>
+        <v>2364.96</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2730.270000</v>
+        <v>-2730.27</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>28435.051555</v>
+        <v>28435.051554999998</v>
       </c>
       <c r="BY4" s="1">
         <v>7.898625</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2848.480000</v>
+        <v>2848.48</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3705.780000</v>
+        <v>-3705.78</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>28446.565718</v>
+        <v>28446.565718000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>7.901824</v>
+        <v>7.9018240000000004</v>
       </c>
       <c r="CE4" s="1">
-        <v>4266.080000</v>
+        <v>4266.08</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6079.770000</v>
+        <v>-6079.77</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>28274.984632</v>
       </c>
       <c r="B5" s="1">
-        <v>7.854162</v>
+        <v>7.8541619999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>1247.240000</v>
+        <v>1247.24</v>
       </c>
       <c r="D5" s="1">
-        <v>-308.694000</v>
+        <v>-308.69400000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>28285.368872</v>
+        <v>28285.368871999999</v>
       </c>
       <c r="G5" s="1">
-        <v>7.857047</v>
+        <v>7.8570469999999997</v>
       </c>
       <c r="H5" s="1">
-        <v>1272.230000</v>
+        <v>1272.23</v>
       </c>
       <c r="I5" s="1">
-        <v>-266.114000</v>
+        <v>-266.11399999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>28295.860251</v>
+        <v>28295.860250999998</v>
       </c>
       <c r="L5" s="1">
-        <v>7.859961</v>
+        <v>7.8599610000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1307.870000</v>
+        <v>1307.8699999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.928000</v>
+        <v>-202.928</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>28306.164638</v>
+        <v>28306.164637999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>7.862824</v>
+        <v>7.8628239999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1319.200000</v>
+        <v>1319.2</v>
       </c>
       <c r="S5" s="1">
-        <v>-185.035000</v>
+        <v>-185.035</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>28316.425407</v>
+        <v>28316.425406999999</v>
       </c>
       <c r="V5" s="1">
-        <v>7.865674</v>
+        <v>7.8656740000000003</v>
       </c>
       <c r="W5" s="1">
-        <v>1332.280000</v>
+        <v>1332.28</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.116000</v>
+        <v>-171.11600000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>28326.489700</v>
+        <v>28326.489699999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.868469</v>
+        <v>7.8684690000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1349.360000</v>
+        <v>1349.36</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.733000</v>
+        <v>-168.733</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>28336.756390</v>
+        <v>28336.756389999999</v>
       </c>
       <c r="AF5" s="1">
         <v>7.871321</v>
       </c>
       <c r="AG5" s="1">
-        <v>1362.290000</v>
+        <v>1362.29</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.354000</v>
+        <v>-178.35400000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>28346.914983</v>
+        <v>28346.914982999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>7.874143</v>
+        <v>7.8741430000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1382.740000</v>
+        <v>1382.74</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.302000</v>
+        <v>-208.30199999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>28357.532842</v>
+        <v>28357.532842000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.877092</v>
+        <v>7.8770920000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1404.290000</v>
+        <v>1404.29</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.105000</v>
+        <v>-252.10499999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>28368.516219</v>
+        <v>28368.516219000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.880143</v>
+        <v>7.8801430000000003</v>
       </c>
       <c r="AV5" s="1">
-        <v>1428.670000</v>
+        <v>1428.67</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.142000</v>
+        <v>-312.142</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>28379.984219</v>
+        <v>28379.984219000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.883329</v>
+        <v>7.8833289999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1447.860000</v>
+        <v>1447.86</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.344000</v>
+        <v>-364.34399999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>28390.595629</v>
+        <v>28390.595628999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.886277</v>
+        <v>7.8862769999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1532.650000</v>
+        <v>1532.65</v>
       </c>
       <c r="BG5" s="1">
-        <v>-613.086000</v>
+        <v>-613.08600000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>28401.625199</v>
+        <v>28401.625198999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>7.889340</v>
+        <v>7.8893399999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1686.400000</v>
+        <v>1686.4</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1059.630000</v>
+        <v>-1059.6300000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>28412.444923</v>
+        <v>28412.444922999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.892346</v>
+        <v>7.8923459999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1980.140000</v>
+        <v>1980.14</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1833.800000</v>
+        <v>-1833.8</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>28424.763042</v>
+        <v>28424.763041999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.895768</v>
+        <v>7.8957680000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>2364.950000</v>
+        <v>2364.9499999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2729.630000</v>
+        <v>-2729.63</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>28435.493490</v>
+        <v>28435.493490000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>7.898748</v>
+        <v>7.8987480000000003</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2849.260000</v>
+        <v>2849.26</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3705.770000</v>
+        <v>-3705.77</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>28446.794867</v>
+        <v>28446.794867000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.901887</v>
+        <v>7.9018870000000003</v>
       </c>
       <c r="CE5" s="1">
-        <v>4262.110000</v>
+        <v>4262.1099999999997</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6079.130000</v>
+        <v>-6079.13</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>28275.333815</v>
+        <v>28275.333815000002</v>
       </c>
       <c r="B6" s="1">
-        <v>7.854259</v>
+        <v>7.8542589999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1247.380000</v>
+        <v>1247.3800000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-308.848000</v>
+        <v>-308.84800000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>28285.719545</v>
       </c>
       <c r="G6" s="1">
-        <v>7.857144</v>
+        <v>7.8571439999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1271.750000</v>
+        <v>1271.75</v>
       </c>
       <c r="I6" s="1">
-        <v>-266.082000</v>
+        <v>-266.08199999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>28296.278582</v>
+        <v>28296.278581999999</v>
       </c>
       <c r="L6" s="1">
-        <v>7.860077</v>
+        <v>7.8600770000000004</v>
       </c>
       <c r="M6" s="1">
-        <v>1307.630000</v>
+        <v>1307.6300000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.095000</v>
+        <v>-203.095</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>28306.446397</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.862902</v>
+        <v>7.8629020000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1319.230000</v>
+        <v>1319.23</v>
       </c>
       <c r="S6" s="1">
-        <v>-185.002000</v>
+        <v>-185.00200000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>28316.701648</v>
+        <v>28316.701647999998</v>
       </c>
       <c r="V6" s="1">
-        <v>7.865750</v>
+        <v>7.8657500000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>1332.110000</v>
+        <v>1332.11</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.082000</v>
+        <v>-171.08199999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>28326.841362</v>
+        <v>28326.841361999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.868567</v>
+        <v>7.8685669999999996</v>
       </c>
       <c r="AB6" s="1">
-        <v>1350.000000</v>
+        <v>1350</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.696000</v>
+        <v>-168.696</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>28337.096646</v>
+        <v>28337.096646000002</v>
       </c>
       <c r="AF6" s="1">
         <v>7.871416</v>
       </c>
       <c r="AG6" s="1">
-        <v>1362.280000</v>
+        <v>1362.28</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.492000</v>
+        <v>-178.49199999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>28347.266119</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.874241</v>
+        <v>7.8742409999999996</v>
       </c>
       <c r="AL6" s="1">
-        <v>1382.750000</v>
+        <v>1382.75</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.339000</v>
+        <v>-208.339</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>28358.258456</v>
@@ -1629,694 +2045,694 @@
         <v>7.877294</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1404.270000</v>
+        <v>1404.27</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.088000</v>
+        <v>-252.08799999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>28369.236907</v>
+        <v>28369.236906999999</v>
       </c>
       <c r="AU6" s="1">
         <v>7.880344</v>
       </c>
       <c r="AV6" s="1">
-        <v>1428.660000</v>
+        <v>1428.66</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.156000</v>
+        <v>-312.15600000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>28380.341339</v>
+        <v>28380.341338999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.883428</v>
+        <v>7.8834280000000003</v>
       </c>
       <c r="BA6" s="1">
-        <v>1447.900000</v>
+        <v>1447.9</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.292000</v>
+        <v>-364.29199999999997</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>28390.956717</v>
+        <v>28390.956717000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.886377</v>
+        <v>7.8863770000000004</v>
       </c>
       <c r="BF6" s="1">
-        <v>1532.620000</v>
+        <v>1532.62</v>
       </c>
       <c r="BG6" s="1">
-        <v>-613.116000</v>
+        <v>-613.11599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>28401.998656</v>
       </c>
       <c r="BJ6" s="1">
-        <v>7.889444</v>
+        <v>7.8894440000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1686.410000</v>
+        <v>1686.41</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1059.590000</v>
+        <v>-1059.5899999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>28413.173553</v>
+        <v>28413.173553000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.892548</v>
+        <v>7.8925479999999997</v>
       </c>
       <c r="BP6" s="1">
-        <v>1979.960000</v>
+        <v>1979.96</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1833.680000</v>
+        <v>-1833.68</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>28424.878143</v>
+        <v>28424.878143000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.895799</v>
+        <v>7.8957990000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>2364.100000</v>
+        <v>2364.1</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2729.390000</v>
+        <v>-2729.39</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>28435.902689</v>
+        <v>28435.902688999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>7.898862</v>
+        <v>7.8988620000000003</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2848.910000</v>
+        <v>2848.91</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3705.270000</v>
+        <v>-3705.27</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>28447.317618</v>
+        <v>28447.317618000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>7.902033</v>
+        <v>7.9020330000000003</v>
       </c>
       <c r="CE6" s="1">
-        <v>4277.950000</v>
+        <v>4277.95</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6070.130000</v>
+        <v>-6070.13</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>28275.766822</v>
+        <v>28275.766822000001</v>
       </c>
       <c r="B7" s="1">
-        <v>7.854380</v>
+        <v>7.8543799999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1246.880000</v>
+        <v>1246.8800000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-308.868000</v>
+        <v>-308.86799999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>28286.162735</v>
+        <v>28286.162735000002</v>
       </c>
       <c r="G7" s="1">
-        <v>7.857267</v>
+        <v>7.8572670000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>1272.530000</v>
+        <v>1272.53</v>
       </c>
       <c r="I7" s="1">
-        <v>-266.199000</v>
+        <v>-266.19900000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>28296.577004</v>
+        <v>28296.577003999999</v>
       </c>
       <c r="L7" s="1">
-        <v>7.860160</v>
+        <v>7.8601599999999996</v>
       </c>
       <c r="M7" s="1">
-        <v>1307.470000</v>
+        <v>1307.47</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.043000</v>
+        <v>-203.04300000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>28306.795052</v>
+        <v>28306.795052000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.862999</v>
+        <v>7.8629990000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>1319.220000</v>
+        <v>1319.22</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.975000</v>
+        <v>-184.97499999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>28317.044421</v>
+        <v>28317.044420999999</v>
       </c>
       <c r="V7" s="1">
-        <v>7.865846</v>
+        <v>7.8658460000000003</v>
       </c>
       <c r="W7" s="1">
-        <v>1332.320000</v>
+        <v>1332.32</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.142000</v>
+        <v>-171.142</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>28327.191537</v>
+        <v>28327.191536999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.868664</v>
+        <v>7.8686639999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1349.410000</v>
+        <v>1349.41</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.786000</v>
+        <v>-168.786</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>28337.781156</v>
+        <v>28337.781156000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.871606</v>
+        <v>7.8716059999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1362.220000</v>
+        <v>1362.22</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.434000</v>
+        <v>-178.434</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>28347.961015</v>
+        <v>28347.961015000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.874434</v>
+        <v>7.8744339999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1382.740000</v>
+        <v>1382.74</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.332000</v>
+        <v>-208.33199999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>28358.637897</v>
+        <v>28358.637897000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.877399</v>
+        <v>7.8773989999999996</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1404.280000</v>
+        <v>1404.28</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.128000</v>
+        <v>-252.12799999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>28369.633705</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.880454</v>
+        <v>7.8804540000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>1428.670000</v>
+        <v>1428.67</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.143000</v>
+        <v>-312.14299999999997</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>28380.704411</v>
+        <v>28380.704410999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>7.883529</v>
+        <v>7.8835290000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1447.880000</v>
+        <v>1447.88</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.303000</v>
+        <v>-364.303</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>28391.626812</v>
+        <v>28391.626811999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.886563</v>
+        <v>7.8865629999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1532.660000</v>
+        <v>1532.66</v>
       </c>
       <c r="BG7" s="1">
-        <v>-613.110000</v>
+        <v>-613.11</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>28402.442574</v>
+        <v>28402.442574000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.889567</v>
+        <v>7.8895670000000004</v>
       </c>
       <c r="BK7" s="1">
-        <v>1686.350000</v>
+        <v>1686.35</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1059.650000</v>
+        <v>-1059.6500000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>28413.288628</v>
+        <v>28413.288627999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.892580</v>
+        <v>7.8925799999999997</v>
       </c>
       <c r="BP7" s="1">
-        <v>1979.970000</v>
+        <v>1979.97</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1833.830000</v>
+        <v>-1833.83</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>28425.321040</v>
+        <v>28425.321039999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>7.895923</v>
+        <v>7.8959229999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>2363.910000</v>
+        <v>2363.91</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2728.770000</v>
+        <v>-2728.77</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>28436.348593</v>
+        <v>28436.348592999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>7.898986</v>
+        <v>7.8989859999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2848.370000</v>
+        <v>2848.37</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3705.670000</v>
+        <v>-3705.67</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>28447.833457</v>
+        <v>28447.833457000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.902176</v>
+        <v>7.9021759999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4266.860000</v>
+        <v>4266.8599999999997</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6055.910000</v>
+        <v>-6055.91</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>28276.037174</v>
+        <v>28276.037174000001</v>
       </c>
       <c r="B8" s="1">
-        <v>7.854455</v>
+        <v>7.8544549999999997</v>
       </c>
       <c r="C8" s="1">
-        <v>1247.140000</v>
+        <v>1247.1400000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-308.736000</v>
+        <v>-308.73599999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>28286.423367</v>
+        <v>28286.423366999999</v>
       </c>
       <c r="G8" s="1">
-        <v>7.857340</v>
+        <v>7.8573399999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>1272.300000</v>
+        <v>1272.3</v>
       </c>
       <c r="I8" s="1">
-        <v>-266.253000</v>
+        <v>-266.25299999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>28296.922681</v>
       </c>
       <c r="L8" s="1">
-        <v>7.860256</v>
+        <v>7.8602559999999997</v>
       </c>
       <c r="M8" s="1">
-        <v>1307.390000</v>
+        <v>1307.3900000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.256000</v>
+        <v>-203.256</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>28307.144109</v>
+        <v>28307.144109000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.863096</v>
+        <v>7.8630959999999996</v>
       </c>
       <c r="R8" s="1">
-        <v>1319.320000</v>
+        <v>1319.32</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.916000</v>
+        <v>-184.916</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>28317.388606</v>
       </c>
       <c r="V8" s="1">
-        <v>7.865941</v>
+        <v>7.8659410000000003</v>
       </c>
       <c r="W8" s="1">
-        <v>1332.390000</v>
+        <v>1332.39</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.144000</v>
+        <v>-171.14400000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>28327.887953</v>
+        <v>28327.887953000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.868858</v>
+        <v>7.8688580000000004</v>
       </c>
       <c r="AB8" s="1">
-        <v>1349.460000</v>
+        <v>1349.46</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.832000</v>
+        <v>-168.83199999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>28338.127860</v>
+        <v>28338.127860000001</v>
       </c>
       <c r="AF8" s="1">
         <v>7.871702</v>
       </c>
       <c r="AG8" s="1">
-        <v>1362.260000</v>
+        <v>1362.26</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.408000</v>
+        <v>-178.40799999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>28348.312677</v>
+        <v>28348.312677000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.874531</v>
+        <v>7.8745310000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>1382.770000</v>
+        <v>1382.77</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.300000</v>
+        <v>-208.3</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>28358.996999</v>
+        <v>28358.996998999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.877499</v>
+        <v>7.8774990000000003</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1404.280000</v>
+        <v>1404.28</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.110000</v>
+        <v>-252.11</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>28370.311773</v>
+        <v>28370.311773000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.880642</v>
+        <v>7.8806419999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1428.640000</v>
+        <v>1428.64</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.173000</v>
+        <v>-312.173</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>28381.378474</v>
+        <v>28381.378474000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>7.883716</v>
+        <v>7.8837159999999997</v>
       </c>
       <c r="BA8" s="1">
-        <v>1447.860000</v>
+        <v>1447.86</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.309000</v>
+        <v>-364.30900000000003</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>28392.071260</v>
+        <v>28392.071260000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.886686</v>
+        <v>7.8866860000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1532.590000</v>
+        <v>1532.59</v>
       </c>
       <c r="BG8" s="1">
-        <v>-613.112000</v>
+        <v>-613.11199999999997</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>28402.751094</v>
+        <v>28402.751093999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>7.889653</v>
       </c>
       <c r="BK8" s="1">
-        <v>1686.390000</v>
+        <v>1686.39</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1059.630000</v>
+        <v>-1059.6300000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>28413.689888</v>
+        <v>28413.689888000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>7.892692</v>
+        <v>7.8926920000000003</v>
       </c>
       <c r="BP8" s="1">
-        <v>1980.060000</v>
+        <v>1980.06</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1833.760000</v>
+        <v>-1833.76</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>28425.733580</v>
+        <v>28425.73358</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.896037</v>
+        <v>7.8960369999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>2363.960000</v>
+        <v>2363.96</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2728.150000</v>
+        <v>-2728.15</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>28436.782610</v>
+        <v>28436.782609999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.899106</v>
+        <v>7.8991059999999997</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2849.070000</v>
+        <v>2849.07</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3705.640000</v>
+        <v>-3705.64</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>28448.351281</v>
+        <v>28448.351280999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>7.902320</v>
+        <v>7.9023199999999996</v>
       </c>
       <c r="CE8" s="1">
-        <v>4254.890000</v>
+        <v>4254.8900000000003</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6068.800000</v>
+        <v>-6068.8</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>28276.377397</v>
       </c>
       <c r="B9" s="1">
-        <v>7.854549</v>
+        <v>7.8545489999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>1247.530000</v>
+        <v>1247.53</v>
       </c>
       <c r="D9" s="1">
-        <v>-308.618000</v>
+        <v>-308.61799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>28286.773543</v>
+        <v>28286.773542999999</v>
       </c>
       <c r="G9" s="1">
         <v>7.857437</v>
       </c>
       <c r="H9" s="1">
-        <v>1272.440000</v>
+        <v>1272.44</v>
       </c>
       <c r="I9" s="1">
-        <v>-266.352000</v>
+        <v>-266.35199999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>28297.267434</v>
+        <v>28297.267434000001</v>
       </c>
       <c r="L9" s="1">
-        <v>7.860352</v>
+        <v>7.8603519999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1308.230000</v>
+        <v>1308.23</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.555000</v>
+        <v>-203.55500000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>28307.841116</v>
@@ -2325,814 +2741,814 @@
         <v>7.863289</v>
       </c>
       <c r="R9" s="1">
-        <v>1319.390000</v>
+        <v>1319.39</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.890000</v>
+        <v>-184.89</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>28318.074574</v>
+        <v>28318.074573999998</v>
       </c>
       <c r="V9" s="1">
-        <v>7.866132</v>
+        <v>7.8661320000000003</v>
       </c>
       <c r="W9" s="1">
-        <v>1332.340000</v>
+        <v>1332.34</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.079000</v>
+        <v>-171.07900000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>28328.238592</v>
+        <v>28328.238592000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.868955</v>
+        <v>7.8689549999999997</v>
       </c>
       <c r="AB9" s="1">
-        <v>1349.330000</v>
+        <v>1349.33</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.879000</v>
+        <v>-168.87899999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>28338.471058</v>
+        <v>28338.471057999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>7.871798</v>
+        <v>7.8717980000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1362.240000</v>
+        <v>1362.24</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.455000</v>
+        <v>-178.45500000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>28348.661397</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.874628</v>
+        <v>7.8746280000000004</v>
       </c>
       <c r="AL9" s="1">
-        <v>1382.750000</v>
+        <v>1382.75</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.293000</v>
+        <v>-208.29300000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>28359.670566</v>
+        <v>28359.670566000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>7.877686</v>
+        <v>7.8776859999999997</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1404.240000</v>
+        <v>1404.24</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.144000</v>
+        <v>-252.14400000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>28370.764089</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.880768</v>
+        <v>7.8807679999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1428.660000</v>
+        <v>1428.66</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.094000</v>
+        <v>-312.09399999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>28381.804338</v>
+        <v>28381.804338000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.883835</v>
+        <v>7.8838350000000004</v>
       </c>
       <c r="BA9" s="1">
-        <v>1447.830000</v>
+        <v>1447.83</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.320000</v>
+        <v>-364.32</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>28392.436618</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.886788</v>
+        <v>7.8867880000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1532.670000</v>
+        <v>1532.67</v>
       </c>
       <c r="BG9" s="1">
-        <v>-613.077000</v>
+        <v>-613.077</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>28403.132510</v>
+        <v>28403.132509999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.889759</v>
+        <v>7.8897589999999997</v>
       </c>
       <c r="BK9" s="1">
-        <v>1686.380000</v>
+        <v>1686.38</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1059.580000</v>
+        <v>-1059.58</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>28414.110000</v>
+        <v>28414.11</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.892808</v>
+        <v>7.8928079999999996</v>
       </c>
       <c r="BP9" s="1">
-        <v>1980.020000</v>
+        <v>1980.02</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1833.530000</v>
+        <v>-1833.53</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>28426.162256</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.896156</v>
+        <v>7.8961560000000004</v>
       </c>
       <c r="BU9" s="1">
-        <v>2363.760000</v>
+        <v>2363.7600000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2727.700000</v>
+        <v>-2727.7</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>28437.204223</v>
+        <v>28437.204223000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.899223</v>
+        <v>7.8992230000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2849.000000</v>
+        <v>2849</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3705.810000</v>
+        <v>-3705.81</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>28448.870592</v>
+        <v>28448.870591999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.902464</v>
+        <v>7.9024640000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>4253.060000</v>
+        <v>4253.0600000000004</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6063.640000</v>
+        <v>-6063.64</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>28276.721621</v>
+        <v>28276.721621000001</v>
       </c>
       <c r="B10" s="1">
-        <v>7.854645</v>
+        <v>7.8546449999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>1247.600000</v>
+        <v>1247.5999999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-308.927000</v>
+        <v>-308.92700000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>28287.115782</v>
+        <v>28287.115782000001</v>
       </c>
       <c r="G10" s="1">
         <v>7.857532</v>
       </c>
       <c r="H10" s="1">
-        <v>1271.900000</v>
+        <v>1271.9000000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-265.842000</v>
+        <v>-265.84199999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>28297.961305</v>
+        <v>28297.961305000001</v>
       </c>
       <c r="L10" s="1">
-        <v>7.860545</v>
+        <v>7.8605450000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1307.720000</v>
+        <v>1307.72</v>
       </c>
       <c r="N10" s="1">
-        <v>-203.291000</v>
+        <v>-203.291</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>28308.187322</v>
+        <v>28308.187322000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.863385</v>
+        <v>7.8633850000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1319.370000</v>
+        <v>1319.37</v>
       </c>
       <c r="S10" s="1">
-        <v>-185.004000</v>
+        <v>-185.00399999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>28318.417805</v>
+        <v>28318.417805000001</v>
       </c>
       <c r="V10" s="1">
-        <v>7.866227</v>
+        <v>7.8662270000000003</v>
       </c>
       <c r="W10" s="1">
-        <v>1332.430000</v>
+        <v>1332.43</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.165000</v>
+        <v>-171.16499999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>28328.583837</v>
+        <v>28328.583836999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.869051</v>
+        <v>7.8690509999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>1349.430000</v>
+        <v>1349.43</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.667000</v>
+        <v>-168.667</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>28339.131731</v>
+        <v>28339.131731000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.871981</v>
+        <v>7.8719809999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1362.270000</v>
+        <v>1362.27</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.483000</v>
+        <v>-178.483</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>28349.320053</v>
+        <v>28349.320052999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>7.874811</v>
+        <v>7.8748110000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>1382.760000</v>
+        <v>1382.76</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.265000</v>
+        <v>-208.26499999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>28360.079765</v>
+        <v>28360.079764999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.877800</v>
+        <v>7.8777999999999997</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1404.250000</v>
+        <v>1404.25</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.132000</v>
+        <v>-252.13200000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>28371.128647</v>
+        <v>28371.128647000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>7.880869</v>
+        <v>7.8808689999999997</v>
       </c>
       <c r="AV10" s="1">
-        <v>1428.680000</v>
+        <v>1428.68</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.133000</v>
+        <v>-312.13299999999998</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>28382.183480</v>
+        <v>28382.18348</v>
       </c>
       <c r="AZ10" s="1">
-        <v>7.883940</v>
+        <v>7.8839399999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1447.850000</v>
+        <v>1447.85</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.269000</v>
+        <v>-364.26900000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>28392.796914</v>
+        <v>28392.796913999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>7.886888</v>
+        <v>7.8868879999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1532.600000</v>
+        <v>1532.6</v>
       </c>
       <c r="BG10" s="1">
-        <v>-613.095000</v>
+        <v>-613.09500000000003</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>28403.555596</v>
+        <v>28403.555595999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.889877</v>
+        <v>7.8898770000000003</v>
       </c>
       <c r="BK10" s="1">
-        <v>1686.340000</v>
+        <v>1686.34</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1059.560000</v>
+        <v>-1059.56</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>28414.541023</v>
+        <v>28414.541023000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.892928</v>
+        <v>7.8929280000000004</v>
       </c>
       <c r="BP10" s="1">
-        <v>1980.060000</v>
+        <v>1980.06</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1833.740000</v>
+        <v>-1833.74</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>28426.592782</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.896276</v>
+        <v>7.8962760000000003</v>
       </c>
       <c r="BU10" s="1">
-        <v>2363.650000</v>
+        <v>2363.65</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2727.220000</v>
+        <v>-2727.22</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>28437.626783</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.899341</v>
+        <v>7.8993409999999997</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2848.820000</v>
+        <v>2848.82</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3705.130000</v>
+        <v>-3705.13</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>28449.422673</v>
+        <v>28449.422673000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.902617</v>
+        <v>7.9026170000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>4267.950000</v>
+        <v>4267.95</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6055.820000</v>
+        <v>-6055.82</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>28277.403619</v>
+        <v>28277.403619000001</v>
       </c>
       <c r="B11" s="1">
-        <v>7.854834</v>
+        <v>7.8548340000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>1247.010000</v>
+        <v>1247.01</v>
       </c>
       <c r="D11" s="1">
-        <v>-308.886000</v>
+        <v>-308.88600000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>28287.805717</v>
+        <v>28287.805716999999</v>
       </c>
       <c r="G11" s="1">
-        <v>7.857724</v>
+        <v>7.8577240000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1272.470000</v>
+        <v>1272.47</v>
       </c>
       <c r="I11" s="1">
-        <v>-265.839000</v>
+        <v>-265.839</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>28298.306023</v>
+        <v>28298.306023000001</v>
       </c>
       <c r="L11" s="1">
-        <v>7.860641</v>
+        <v>7.8606410000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1307.490000</v>
+        <v>1307.49</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.302000</v>
+        <v>-203.30199999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>28308.537995</v>
+        <v>28308.537994999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.863483</v>
+        <v>7.8634829999999996</v>
       </c>
       <c r="R11" s="1">
-        <v>1319.290000</v>
+        <v>1319.29</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.918000</v>
+        <v>-184.91800000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>28318.763516</v>
+        <v>28318.763515999999</v>
       </c>
       <c r="V11" s="1">
-        <v>7.866323</v>
+        <v>7.8663230000000004</v>
       </c>
       <c r="W11" s="1">
-        <v>1332.340000</v>
+        <v>1332.34</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.093000</v>
+        <v>-171.09299999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>28329.254399</v>
+        <v>28329.254399000001</v>
       </c>
       <c r="AA11" s="1">
         <v>7.869237</v>
       </c>
       <c r="AB11" s="1">
-        <v>1349.520000</v>
+        <v>1349.52</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.967000</v>
+        <v>-168.96700000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>28339.499794</v>
+        <v>28339.499793999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.872083</v>
+        <v>7.8720829999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1362.240000</v>
+        <v>1362.24</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.392000</v>
+        <v>-178.392</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>28349.704979</v>
+        <v>28349.704978999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>7.874918</v>
+        <v>7.8749180000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1382.720000</v>
+        <v>1382.72</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.272000</v>
+        <v>-208.27199999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>28360.461685</v>
+        <v>28360.461684999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.877906</v>
+        <v>7.8779060000000003</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1404.250000</v>
+        <v>1404.25</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.114000</v>
+        <v>-252.114</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>28371.491224</v>
+        <v>28371.491224000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>7.880970</v>
+        <v>7.8809699999999996</v>
       </c>
       <c r="AV11" s="1">
-        <v>1428.650000</v>
+        <v>1428.65</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.162000</v>
+        <v>-312.16199999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>28382.546057</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.884041</v>
+        <v>7.8840409999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1447.880000</v>
+        <v>1447.88</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.274000</v>
+        <v>-364.274</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>28393.221481</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.887006</v>
+        <v>7.8870060000000004</v>
       </c>
       <c r="BF11" s="1">
-        <v>1532.620000</v>
+        <v>1532.62</v>
       </c>
       <c r="BG11" s="1">
-        <v>-613.056000</v>
+        <v>-613.05600000000004</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>28403.899324</v>
+        <v>28403.899324000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>7.889972</v>
+        <v>7.8899720000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1686.400000</v>
+        <v>1686.4</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1059.580000</v>
+        <v>-1059.58</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>28414.929885</v>
+        <v>28414.929885000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.893036</v>
+        <v>7.8930360000000004</v>
       </c>
       <c r="BP11" s="1">
-        <v>1980.000000</v>
+        <v>1980</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1833.710000</v>
+        <v>-1833.71</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>28427.001024</v>
+        <v>28427.001024000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.896389</v>
+        <v>7.8963890000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2364.060000</v>
+        <v>2364.06</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2726.610000</v>
+        <v>-2726.61</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>28438.051855</v>
+        <v>28438.051855000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>7.899459</v>
+        <v>7.8994590000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2847.610000</v>
+        <v>2847.61</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3705.440000</v>
+        <v>-3705.44</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>28449.951871</v>
+        <v>28449.951871000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>7.902764</v>
+        <v>7.9027640000000003</v>
       </c>
       <c r="CE11" s="1">
-        <v>4254.900000</v>
+        <v>4254.8999999999996</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6067.210000</v>
+        <v>-6067.21</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>28277.747844</v>
+        <v>28277.747844000001</v>
       </c>
       <c r="B12" s="1">
-        <v>7.854930</v>
+        <v>7.8549300000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>1247.080000</v>
+        <v>1247.08</v>
       </c>
       <c r="D12" s="1">
-        <v>-308.727000</v>
+        <v>-308.72699999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>28288.153414</v>
       </c>
       <c r="G12" s="1">
-        <v>7.857820</v>
+        <v>7.8578200000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.230000</v>
+        <v>1272.23</v>
       </c>
       <c r="I12" s="1">
-        <v>-265.918000</v>
+        <v>-265.91800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>28298.653751</v>
+        <v>28298.653751000002</v>
       </c>
       <c r="L12" s="1">
-        <v>7.860737</v>
+        <v>7.8607370000000003</v>
       </c>
       <c r="M12" s="1">
-        <v>1307.510000</v>
+        <v>1307.51</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.397000</v>
+        <v>-203.39699999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>28309.194203</v>
+        <v>28309.194202999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.863665</v>
+        <v>7.8636650000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1319.280000</v>
+        <v>1319.28</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.815000</v>
+        <v>-184.815</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>28319.404844</v>
+        <v>28319.404844000001</v>
       </c>
       <c r="V12" s="1">
-        <v>7.866501</v>
+        <v>7.8665010000000004</v>
       </c>
       <c r="W12" s="1">
-        <v>1332.380000</v>
+        <v>1332.38</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.125000</v>
+        <v>-171.125</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>28329.633342</v>
+        <v>28329.633342000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.869343</v>
+        <v>7.8693429999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>1349.420000</v>
+        <v>1349.42</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.726000</v>
+        <v>-168.726</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>28339.844976</v>
@@ -3141,255 +3557,255 @@
         <v>7.872179</v>
       </c>
       <c r="AG12" s="1">
-        <v>1362.270000</v>
+        <v>1362.27</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.462000</v>
+        <v>-178.46199999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>28350.054627</v>
+        <v>28350.054627000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.875015</v>
+        <v>7.8750150000000003</v>
       </c>
       <c r="AL12" s="1">
-        <v>1382.750000</v>
+        <v>1382.75</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.294000</v>
+        <v>-208.29400000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>28360.821781</v>
+        <v>28360.821780999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>7.878006</v>
+        <v>7.8780060000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1404.260000</v>
+        <v>1404.26</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.076000</v>
+        <v>-252.07599999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>28371.913846</v>
+        <v>28371.913845999999</v>
       </c>
       <c r="AU12" s="1">
         <v>7.881087</v>
       </c>
       <c r="AV12" s="1">
-        <v>1428.640000</v>
+        <v>1428.64</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.171000</v>
+        <v>-312.17099999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>28382.967160</v>
+        <v>28382.96716</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.884158</v>
+        <v>7.8841580000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1447.900000</v>
+        <v>1447.9</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.270000</v>
+        <v>-364.27</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>28393.520041</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.887089</v>
+        <v>7.8870889999999996</v>
       </c>
       <c r="BF12" s="1">
-        <v>1532.610000</v>
+        <v>1532.61</v>
       </c>
       <c r="BG12" s="1">
-        <v>-613.048000</v>
+        <v>-613.048</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>28404.274796</v>
+        <v>28404.274796000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>7.890076</v>
+        <v>7.8900759999999996</v>
       </c>
       <c r="BK12" s="1">
-        <v>1686.380000</v>
+        <v>1686.38</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1059.580000</v>
+        <v>-1059.58</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>28415.325164</v>
+        <v>28415.325164000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.893146</v>
+        <v>7.8931459999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1979.890000</v>
+        <v>1979.89</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1833.670000</v>
+        <v>-1833.67</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>28427.431022</v>
+        <v>28427.431022000001</v>
       </c>
       <c r="BT12" s="1">
         <v>7.896509</v>
       </c>
       <c r="BU12" s="1">
-        <v>2364.130000</v>
+        <v>2364.13</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2726.400000</v>
+        <v>-2726.4</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>28438.468494</v>
+        <v>28438.468494000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>7.899575</v>
+        <v>7.8995749999999996</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2848.490000</v>
+        <v>2848.49</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3705.820000</v>
+        <v>-3705.82</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>28450.471182</v>
+        <v>28450.471182000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.902909</v>
+        <v>7.9029090000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>4269.510000</v>
+        <v>4269.51</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6077.660000</v>
+        <v>-6077.66</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>28278.086114</v>
+        <v>28278.086114000002</v>
       </c>
       <c r="B13" s="1">
-        <v>7.855024</v>
+        <v>7.8550240000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1247.170000</v>
+        <v>1247.17</v>
       </c>
       <c r="D13" s="1">
-        <v>-309.036000</v>
+        <v>-309.036</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>28288.814579</v>
+        <v>28288.814579000002</v>
       </c>
       <c r="G13" s="1">
-        <v>7.858004</v>
+        <v>7.8580040000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>1272.310000</v>
+        <v>1272.31</v>
       </c>
       <c r="I13" s="1">
-        <v>-265.731000</v>
+        <v>-265.73099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>28299.303478</v>
+        <v>28299.303478000002</v>
       </c>
       <c r="L13" s="1">
-        <v>7.860918</v>
+        <v>7.8609179999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1307.760000</v>
+        <v>1307.76</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.507000</v>
+        <v>-203.50700000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>28309.582105</v>
+        <v>28309.582105000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.863773</v>
+        <v>7.8637730000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1319.460000</v>
+        <v>1319.46</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.813000</v>
+        <v>-184.81299999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>28319.797675</v>
+        <v>28319.797675000002</v>
       </c>
       <c r="V13" s="1">
-        <v>7.866610</v>
+        <v>7.8666099999999997</v>
       </c>
       <c r="W13" s="1">
-        <v>1332.330000</v>
+        <v>1332.33</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.165000</v>
+        <v>-171.16499999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>28329.978559</v>
+        <v>28329.978558999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.869438</v>
+        <v>7.8694379999999997</v>
       </c>
       <c r="AB13" s="1">
-        <v>1349.390000</v>
+        <v>1349.39</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.760000</v>
+        <v>-168.76</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>28340.185232</v>
@@ -3398,255 +3814,255 @@
         <v>7.872274</v>
       </c>
       <c r="AG13" s="1">
-        <v>1362.190000</v>
+        <v>1362.19</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.421000</v>
+        <v>-178.42099999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>28350.407029</v>
+        <v>28350.407029000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.875113</v>
+        <v>7.8751129999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>1382.730000</v>
+        <v>1382.73</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.247000</v>
+        <v>-208.24700000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>28361.246884</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.878124</v>
+        <v>7.8781239999999997</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1404.250000</v>
+        <v>1404.25</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.115000</v>
+        <v>-252.11500000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>28372.223318</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.881173</v>
+        <v>7.8811730000000004</v>
       </c>
       <c r="AV13" s="1">
-        <v>1428.690000</v>
+        <v>1428.69</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.116000</v>
+        <v>-312.11599999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>28383.261783</v>
+        <v>28383.261783000002</v>
       </c>
       <c r="AZ13" s="1">
         <v>7.884239</v>
       </c>
       <c r="BA13" s="1">
-        <v>1447.830000</v>
+        <v>1447.83</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.311000</v>
+        <v>-364.31099999999998</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>28393.881165</v>
+        <v>28393.881164999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>7.887189</v>
+        <v>7.8871890000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1532.620000</v>
+        <v>1532.62</v>
       </c>
       <c r="BG13" s="1">
-        <v>-613.083000</v>
+        <v>-613.08299999999997</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>28404.650268</v>
+        <v>28404.650268000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.890181</v>
+        <v>7.8901810000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1686.410000</v>
+        <v>1686.41</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1059.500000</v>
+        <v>-1059.5</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>28415.748781</v>
+        <v>28415.748780999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.893264</v>
+        <v>7.8932640000000003</v>
       </c>
       <c r="BP13" s="1">
-        <v>1980.020000</v>
+        <v>1980.02</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1833.540000</v>
+        <v>-1833.54</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>28427.859601</v>
       </c>
       <c r="BT13" s="1">
-        <v>7.896628</v>
+        <v>7.8966279999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>2364.470000</v>
+        <v>2364.4699999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2725.980000</v>
+        <v>-2725.98</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>28438.917903</v>
+        <v>28438.917903000001</v>
       </c>
       <c r="BY13" s="1">
         <v>7.899699</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2848.870000</v>
+        <v>2848.87</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3705.290000</v>
+        <v>-3705.29</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>28450.991486</v>
+        <v>28450.991485999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.903053</v>
+        <v>7.9030529999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4276.550000</v>
+        <v>4276.55</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6061.060000</v>
+        <v>-6061.06</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>28278.742817</v>
+        <v>28278.742816999998</v>
       </c>
       <c r="B14" s="1">
-        <v>7.855206</v>
+        <v>7.8552059999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1247.170000</v>
+        <v>1247.17</v>
       </c>
       <c r="D14" s="1">
-        <v>-308.776000</v>
+        <v>-308.77600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>28289.188673</v>
+        <v>28289.188673000001</v>
       </c>
       <c r="G14" s="1">
-        <v>7.858108</v>
+        <v>7.8581079999999996</v>
       </c>
       <c r="H14" s="1">
-        <v>1272.270000</v>
+        <v>1272.27</v>
       </c>
       <c r="I14" s="1">
-        <v>-265.574000</v>
+        <v>-265.57400000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>28299.689895</v>
       </c>
       <c r="L14" s="1">
-        <v>7.861025</v>
+        <v>7.8610249999999997</v>
       </c>
       <c r="M14" s="1">
-        <v>1307.550000</v>
+        <v>1307.55</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.228000</v>
+        <v>-203.22800000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>28309.931288</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.863870</v>
+        <v>7.8638700000000004</v>
       </c>
       <c r="R14" s="1">
-        <v>1319.480000</v>
+        <v>1319.48</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.827000</v>
+        <v>-184.827</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>28320.133963</v>
       </c>
       <c r="V14" s="1">
-        <v>7.866704</v>
+        <v>7.8667040000000004</v>
       </c>
       <c r="W14" s="1">
-        <v>1332.480000</v>
+        <v>1332.48</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.059000</v>
+        <v>-171.059</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>28330.330744</v>
+        <v>28330.330743999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.869536</v>
+        <v>7.8695360000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1349.410000</v>
+        <v>1349.41</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.689000</v>
+        <v>-168.68899999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>28340.621711</v>
@@ -3655,754 +4071,754 @@
         <v>7.872395</v>
       </c>
       <c r="AG14" s="1">
-        <v>1362.270000</v>
+        <v>1362.27</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.379000</v>
+        <v>-178.37899999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>28350.836322</v>
+        <v>28350.836321999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.875232</v>
+        <v>7.8752319999999996</v>
       </c>
       <c r="AL14" s="1">
-        <v>1382.730000</v>
+        <v>1382.73</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.263000</v>
+        <v>-208.26300000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>28361.541011</v>
+        <v>28361.541011000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.878206</v>
+        <v>7.8782059999999996</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1404.270000</v>
+        <v>1404.27</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.076000</v>
+        <v>-252.07599999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>28372.586389</v>
       </c>
       <c r="AU14" s="1">
-        <v>7.881274</v>
+        <v>7.8812740000000003</v>
       </c>
       <c r="AV14" s="1">
-        <v>1428.660000</v>
+        <v>1428.66</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.141000</v>
+        <v>-312.14100000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>28383.617942</v>
+        <v>28383.617942000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.884338</v>
+        <v>7.8843379999999996</v>
       </c>
       <c r="BA14" s="1">
-        <v>1447.900000</v>
+        <v>1447.9</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.283000</v>
+        <v>-364.28300000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>28394.240760</v>
+        <v>28394.240760000001</v>
       </c>
       <c r="BE14" s="1">
         <v>7.887289</v>
       </c>
       <c r="BF14" s="1">
-        <v>1532.600000</v>
+        <v>1532.6</v>
       </c>
       <c r="BG14" s="1">
-        <v>-613.125000</v>
+        <v>-613.125</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>28405.423530</v>
+        <v>28405.42353</v>
       </c>
       <c r="BJ14" s="1">
-        <v>7.890395</v>
+        <v>7.8903949999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1686.360000</v>
+        <v>1686.36</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1059.510000</v>
+        <v>-1059.51</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>28416.564203</v>
+        <v>28416.564203000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.893490</v>
+        <v>7.8934899999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1979.820000</v>
+        <v>1979.82</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1833.650000</v>
+        <v>-1833.65</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>28428.273725</v>
+        <v>28428.273724999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.896743</v>
+        <v>7.8967429999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>2364.590000</v>
+        <v>2364.59</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2725.420000</v>
+        <v>-2725.42</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>28439.336493</v>
+        <v>28439.336492999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.899816</v>
+        <v>7.8998160000000004</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2848.260000</v>
+        <v>2848.26</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3705.150000</v>
+        <v>-3705.15</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>28451.508318</v>
       </c>
       <c r="CD14" s="1">
-        <v>7.903197</v>
+        <v>7.9031969999999996</v>
       </c>
       <c r="CE14" s="1">
-        <v>4260.220000</v>
+        <v>4260.22</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6055.610000</v>
+        <v>-6055.61</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>28279.113510</v>
+        <v>28279.113509999999</v>
       </c>
       <c r="B15" s="1">
-        <v>7.855309</v>
+        <v>7.8553090000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1247.310000</v>
+        <v>1247.31</v>
       </c>
       <c r="D15" s="1">
-        <v>-308.678000</v>
+        <v>-308.678</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>28289.534771</v>
+        <v>28289.534770999999</v>
       </c>
       <c r="G15" s="1">
-        <v>7.858204</v>
+        <v>7.8582039999999997</v>
       </c>
       <c r="H15" s="1">
-        <v>1271.740000</v>
+        <v>1271.74</v>
       </c>
       <c r="I15" s="1">
-        <v>-266.539000</v>
+        <v>-266.53899999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>28300.036069</v>
+        <v>28300.036069000002</v>
       </c>
       <c r="L15" s="1">
-        <v>7.861121</v>
+        <v>7.8611209999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.570000</v>
+        <v>1307.57</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.262000</v>
+        <v>-203.262</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>28310.283453</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.863968</v>
+        <v>7.8639679999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1319.380000</v>
+        <v>1319.38</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.958000</v>
+        <v>-184.958</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>28320.674602</v>
+        <v>28320.674601999999</v>
       </c>
       <c r="V15" s="1">
         <v>7.866854</v>
       </c>
       <c r="W15" s="1">
-        <v>1332.230000</v>
+        <v>1332.23</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.148000</v>
+        <v>-171.148</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>28330.757277</v>
+        <v>28330.757277000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.869655</v>
+        <v>7.8696549999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>1349.450000</v>
+        <v>1349.45</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.608000</v>
+        <v>-168.608</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>28340.902449</v>
+        <v>28340.902449000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.872473</v>
+        <v>7.8724730000000003</v>
       </c>
       <c r="AG15" s="1">
-        <v>1362.190000</v>
+        <v>1362.19</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.384000</v>
+        <v>-178.38399999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>28351.107634</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.875308</v>
+        <v>7.8753080000000004</v>
       </c>
       <c r="AL15" s="1">
-        <v>1382.720000</v>
+        <v>1382.72</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.253000</v>
+        <v>-208.25299999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>28361.903587</v>
+        <v>28361.903587000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>7.878307</v>
+        <v>7.8783070000000004</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1404.260000</v>
+        <v>1404.26</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.121000</v>
+        <v>-252.12100000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>28372.953926</v>
+        <v>28372.953925999998</v>
       </c>
       <c r="AU15" s="1">
-        <v>7.881376</v>
+        <v>7.8813760000000004</v>
       </c>
       <c r="AV15" s="1">
-        <v>1428.650000</v>
+        <v>1428.65</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.145000</v>
+        <v>-312.14499999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>28383.981478</v>
+        <v>28383.981478000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>7.884439</v>
+        <v>7.8844390000000004</v>
       </c>
       <c r="BA15" s="1">
-        <v>1447.870000</v>
+        <v>1447.87</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.330000</v>
+        <v>-364.33</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>28394.962409</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.887490</v>
+        <v>7.8874899999999997</v>
       </c>
       <c r="BF15" s="1">
-        <v>1532.610000</v>
+        <v>1532.61</v>
       </c>
       <c r="BG15" s="1">
-        <v>-613.075000</v>
+        <v>-613.07500000000005</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>28405.797017</v>
+        <v>28405.797017000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.890499</v>
+        <v>7.8904990000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1686.390000</v>
+        <v>1686.39</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1059.610000</v>
+        <v>-1059.6099999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>28416.982333</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.893606</v>
+        <v>7.8936060000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1979.830000</v>
+        <v>1979.83</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1833.620000</v>
+        <v>-1833.62</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>28428.704251</v>
+        <v>28428.704250999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>7.896862</v>
+        <v>7.8968619999999996</v>
       </c>
       <c r="BU15" s="1">
-        <v>2364.970000</v>
+        <v>2364.9699999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2725.460000</v>
+        <v>-2725.46</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>28440.074078</v>
+        <v>28440.074078000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.900021</v>
+        <v>7.9000209999999997</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2848.400000</v>
+        <v>2848.4</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3705.070000</v>
+        <v>-3705.07</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>28452.023198</v>
+        <v>28452.023197999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>7.903340</v>
+        <v>7.90334</v>
       </c>
       <c r="CE15" s="1">
-        <v>4256.050000</v>
+        <v>4256.05</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6070.400000</v>
+        <v>-6070.4</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>28279.458544</v>
+        <v>28279.458544000001</v>
       </c>
       <c r="B16" s="1">
-        <v>7.855405</v>
+        <v>7.8554050000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1247.280000</v>
+        <v>1247.28</v>
       </c>
       <c r="D16" s="1">
-        <v>-308.453000</v>
+        <v>-308.45299999999997</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>28289.878500</v>
+        <v>28289.878499999999</v>
       </c>
       <c r="G16" s="1">
-        <v>7.858300</v>
+        <v>7.8582999999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>1272.320000</v>
+        <v>1272.32</v>
       </c>
       <c r="I16" s="1">
-        <v>-266.328000</v>
+        <v>-266.32799999999997</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>28300.379797</v>
+        <v>28300.379797000001</v>
       </c>
       <c r="L16" s="1">
-        <v>7.861217</v>
+        <v>7.8612169999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1307.620000</v>
+        <v>1307.6199999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.477000</v>
+        <v>-203.477</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>28310.709025</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.864086</v>
+        <v>7.8640860000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>1319.350000</v>
+        <v>1319.35</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.920000</v>
+        <v>-184.92</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>28320.825385</v>
       </c>
       <c r="V16" s="1">
-        <v>7.866896</v>
+        <v>7.8668959999999997</v>
       </c>
       <c r="W16" s="1">
-        <v>1332.350000</v>
+        <v>1332.35</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.142000</v>
+        <v>-171.142</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>28331.032060</v>
+        <v>28331.032060000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>7.869731</v>
+        <v>7.8697309999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1349.440000</v>
+        <v>1349.44</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.806000</v>
+        <v>-168.80600000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>28341.246670</v>
+        <v>28341.24667</v>
       </c>
       <c r="AF16" s="1">
-        <v>7.872569</v>
+        <v>7.8725690000000004</v>
       </c>
       <c r="AG16" s="1">
-        <v>1362.280000</v>
+        <v>1362.28</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.472000</v>
+        <v>-178.47200000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>28351.458801</v>
+        <v>28351.458801000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>7.875405</v>
+        <v>7.8754049999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1382.750000</v>
+        <v>1382.75</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.259000</v>
+        <v>-208.25899999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>28362.263683</v>
+        <v>28362.263683000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>7.878407</v>
+        <v>7.8784070000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1404.260000</v>
+        <v>1404.26</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.092000</v>
+        <v>-252.09200000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>28373.679076</v>
       </c>
       <c r="AU16" s="1">
-        <v>7.881578</v>
+        <v>7.8815780000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>1428.640000</v>
+        <v>1428.64</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.156000</v>
+        <v>-312.15600000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>28384.704149</v>
+        <v>28384.704149000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>7.884640</v>
+        <v>7.8846400000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1447.840000</v>
+        <v>1447.84</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.337000</v>
+        <v>-364.33699999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>28395.325508</v>
+        <v>28395.325508000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>7.887590</v>
+        <v>7.8875900000000003</v>
       </c>
       <c r="BF16" s="1">
-        <v>1532.610000</v>
+        <v>1532.61</v>
       </c>
       <c r="BG16" s="1">
-        <v>-613.053000</v>
+        <v>-613.053</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>28406.175000</v>
+        <v>28406.174999999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.890604</v>
+        <v>7.8906039999999997</v>
       </c>
       <c r="BK16" s="1">
-        <v>1686.290000</v>
+        <v>1686.29</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1059.500000</v>
+        <v>-1059.5</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>28417.377642</v>
+        <v>28417.377641999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.893716</v>
+        <v>7.8937160000000004</v>
       </c>
       <c r="BP16" s="1">
-        <v>1979.990000</v>
+        <v>1979.99</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1833.440000</v>
+        <v>-1833.44</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>28429.443290</v>
+        <v>28429.443289999999</v>
       </c>
       <c r="BT16" s="1">
         <v>7.897068</v>
       </c>
       <c r="BU16" s="1">
-        <v>2365.410000</v>
+        <v>2365.41</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2725.260000</v>
+        <v>-2725.26</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>28440.241197</v>
+        <v>28440.241196999999</v>
       </c>
       <c r="BY16" s="1">
         <v>7.900067</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2848.570000</v>
+        <v>2848.57</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3705.280000</v>
+        <v>-3705.28</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>28452.543997</v>
+        <v>28452.543997000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>7.903484</v>
+        <v>7.9034839999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>4255.360000</v>
+        <v>4255.3599999999997</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6064.570000</v>
+        <v>-6064.57</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>28279.800816</v>
+        <v>28279.800815999999</v>
       </c>
       <c r="B17" s="1">
-        <v>7.855500</v>
+        <v>7.8555000000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1247.380000</v>
+        <v>1247.3800000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-308.773000</v>
+        <v>-308.77300000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>28290.312003</v>
+        <v>28290.312002999999</v>
       </c>
       <c r="G17" s="1">
-        <v>7.858420</v>
+        <v>7.8584199999999997</v>
       </c>
       <c r="H17" s="1">
-        <v>1271.740000</v>
+        <v>1271.74</v>
       </c>
       <c r="I17" s="1">
-        <v>-265.903000</v>
+        <v>-265.90300000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>28300.799414</v>
+        <v>28300.799414000001</v>
       </c>
       <c r="L17" s="1">
-        <v>7.861333</v>
+        <v>7.8613330000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1307.510000</v>
+        <v>1307.51</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.238000</v>
+        <v>-203.238</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>28310.989250</v>
+        <v>28310.989249999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.864164</v>
+        <v>7.8641639999999997</v>
       </c>
       <c r="R17" s="1">
-        <v>1319.340000</v>
+        <v>1319.34</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.860000</v>
+        <v>-184.86</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>28321.164649</v>
+        <v>28321.164648999998</v>
       </c>
       <c r="V17" s="1">
-        <v>7.866990</v>
+        <v>7.8669900000000004</v>
       </c>
       <c r="W17" s="1">
-        <v>1332.340000</v>
+        <v>1332.34</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.040000</v>
+        <v>-171.04</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>28331.381771</v>
@@ -4411,557 +4827,557 @@
         <v>7.869828</v>
       </c>
       <c r="AB17" s="1">
-        <v>1349.550000</v>
+        <v>1349.55</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.801000</v>
+        <v>-168.80099999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>28341.590398</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.872664</v>
+        <v>7.8726640000000003</v>
       </c>
       <c r="AG17" s="1">
-        <v>1362.300000</v>
+        <v>1362.3</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.429000</v>
+        <v>-178.429</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>28351.805009</v>
       </c>
       <c r="AK17" s="1">
-        <v>7.875501</v>
+        <v>7.8755009999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1382.710000</v>
+        <v>1382.71</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.232000</v>
+        <v>-208.232</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>28362.982869</v>
+        <v>28362.982868999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.878606</v>
+        <v>7.8786060000000004</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1404.270000</v>
+        <v>1404.27</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.046000</v>
+        <v>-252.04599999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>28374.069923</v>
+        <v>28374.069922999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.881686</v>
+        <v>7.8816860000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>1428.640000</v>
+        <v>1428.64</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.140000</v>
+        <v>-312.14</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>28385.081110</v>
+        <v>28385.081109999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.884745</v>
+        <v>7.8847449999999997</v>
       </c>
       <c r="BA17" s="1">
-        <v>1447.850000</v>
+        <v>1447.85</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.288000</v>
+        <v>-364.28800000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>28395.686373</v>
       </c>
       <c r="BE17" s="1">
-        <v>7.887691</v>
+        <v>7.8876910000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1532.630000</v>
+        <v>1532.63</v>
       </c>
       <c r="BG17" s="1">
-        <v>-613.055000</v>
+        <v>-613.05499999999995</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>28406.864935</v>
+        <v>28406.864935000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.890796</v>
+        <v>7.8907959999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1686.350000</v>
+        <v>1686.35</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1059.470000</v>
+        <v>-1059.47</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>28418.107721</v>
       </c>
       <c r="BO17" s="1">
-        <v>7.893919</v>
+        <v>7.8939190000000004</v>
       </c>
       <c r="BP17" s="1">
-        <v>1979.730000</v>
+        <v>1979.73</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1833.690000</v>
+        <v>-1833.69</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>28429.575754</v>
+        <v>28429.575754000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>7.897104</v>
+        <v>7.8971039999999997</v>
       </c>
       <c r="BU17" s="1">
-        <v>2365.460000</v>
+        <v>2365.46</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2725.340000</v>
+        <v>-2725.34</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>28440.667789</v>
+        <v>28440.667788999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.900185</v>
+        <v>7.9001849999999996</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2848.510000</v>
+        <v>2848.51</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3705.270000</v>
+        <v>-3705.27</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>28453.096507</v>
+        <v>28453.096506999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>7.903638</v>
+        <v>7.9036379999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4264.750000</v>
+        <v>4264.75</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6055.890000</v>
+        <v>-6055.89</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>28280.220399</v>
+        <v>28280.220399000002</v>
       </c>
       <c r="B18" s="1">
-        <v>7.855617</v>
+        <v>7.8556169999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>1247.390000</v>
+        <v>1247.3900000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-308.620000</v>
+        <v>-308.62</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>28290.573927</v>
+        <v>28290.573927000001</v>
       </c>
       <c r="G18" s="1">
-        <v>7.858493</v>
+        <v>7.8584930000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1272.260000</v>
+        <v>1272.26</v>
       </c>
       <c r="I18" s="1">
-        <v>-266.015000</v>
+        <v>-266.01499999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>28301.092052</v>
       </c>
       <c r="L18" s="1">
-        <v>7.861414</v>
+        <v>7.8614139999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1307.600000</v>
+        <v>1307.5999999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.086000</v>
+        <v>-203.08600000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>28311.335926</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.864260</v>
+        <v>7.8642599999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>1319.330000</v>
+        <v>1319.33</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.780000</v>
+        <v>-184.78</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>28321.509617</v>
       </c>
       <c r="V18" s="1">
-        <v>7.867086</v>
+        <v>7.8670859999999996</v>
       </c>
       <c r="W18" s="1">
-        <v>1332.460000</v>
+        <v>1332.46</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.108000</v>
+        <v>-171.108</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>28331.728443</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.869925</v>
+        <v>7.8699250000000003</v>
       </c>
       <c r="AB18" s="1">
-        <v>1349.520000</v>
+        <v>1349.52</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.750000</v>
+        <v>-168.75</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>28342.272398</v>
+        <v>28342.272398000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>7.872853</v>
+        <v>7.8728530000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1362.240000</v>
+        <v>1362.24</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.437000</v>
+        <v>-178.43700000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>28352.504864</v>
+        <v>28352.504863999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.875696</v>
+        <v>7.8756959999999996</v>
       </c>
       <c r="AL18" s="1">
-        <v>1382.740000</v>
+        <v>1382.74</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.253000</v>
+        <v>-208.25299999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>28363.345953</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.878707</v>
+        <v>7.8787070000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1404.250000</v>
+        <v>1404.25</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.088000</v>
+        <v>-252.08799999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>28374.435010</v>
+        <v>28374.435010000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.881788</v>
+        <v>7.8817880000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>1428.650000</v>
+        <v>1428.65</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.116000</v>
+        <v>-312.11599999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>28385.458085</v>
+        <v>28385.458084999998</v>
       </c>
       <c r="AZ18" s="1">
         <v>7.884849</v>
       </c>
       <c r="BA18" s="1">
-        <v>1447.880000</v>
+        <v>1447.88</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.297000</v>
+        <v>-364.29700000000003</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>28396.367077</v>
+        <v>28396.367076999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.887880</v>
+        <v>7.88788</v>
       </c>
       <c r="BF18" s="1">
-        <v>1532.590000</v>
+        <v>1532.59</v>
       </c>
       <c r="BG18" s="1">
-        <v>-613.043000</v>
+        <v>-613.04300000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>28407.333625</v>
+        <v>28407.333624999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.890926</v>
+        <v>7.8909260000000003</v>
       </c>
       <c r="BK18" s="1">
-        <v>1686.350000</v>
+        <v>1686.35</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1059.550000</v>
+        <v>-1059.55</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>28418.617610</v>
+        <v>28418.617610000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.894060</v>
+        <v>7.8940599999999996</v>
       </c>
       <c r="BP18" s="1">
-        <v>1979.860000</v>
+        <v>1979.86</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1833.470000</v>
+        <v>-1833.47</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>28429.990875</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.897220</v>
+        <v>7.8972199999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2365.920000</v>
+        <v>2365.92</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2725.130000</v>
+        <v>-2725.13</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>28441.116634</v>
+        <v>28441.116634000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.900310</v>
+        <v>7.9003100000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2848.280000</v>
+        <v>2848.28</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3704.770000</v>
+        <v>-3704.77</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>28453.628218</v>
+        <v>28453.628218000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.903786</v>
+        <v>7.9037860000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>4255.980000</v>
+        <v>4255.9799999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6067.580000</v>
+        <v>-6067.58</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>28280.498687</v>
+        <v>28280.498686999999</v>
       </c>
       <c r="B19" s="1">
-        <v>7.855694</v>
+        <v>7.8556939999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>1247.620000</v>
+        <v>1247.6199999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-308.613000</v>
+        <v>-308.613</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>28290.919105</v>
+        <v>28290.919105000001</v>
       </c>
       <c r="G19" s="1">
-        <v>7.858589</v>
+        <v>7.8585890000000003</v>
       </c>
       <c r="H19" s="1">
-        <v>1272.610000</v>
+        <v>1272.6099999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-266.303000</v>
+        <v>-266.303</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>28301.437795</v>
+        <v>28301.437795000002</v>
       </c>
       <c r="L19" s="1">
-        <v>7.861510</v>
+        <v>7.86151</v>
       </c>
       <c r="M19" s="1">
-        <v>1307.890000</v>
+        <v>1307.8900000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.260000</v>
+        <v>-203.26</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>28311.689109</v>
+        <v>28311.689108999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.864358</v>
+        <v>7.8643580000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1319.420000</v>
+        <v>1319.42</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.827000</v>
+        <v>-184.827</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>28322.196824</v>
+        <v>28322.196823999999</v>
       </c>
       <c r="V19" s="1">
-        <v>7.867277</v>
+        <v>7.8672769999999996</v>
       </c>
       <c r="W19" s="1">
-        <v>1332.360000</v>
+        <v>1332.36</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.092000</v>
+        <v>-171.09200000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>28332.426348</v>
+        <v>28332.426348000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.870118</v>
+        <v>7.8701179999999997</v>
       </c>
       <c r="AB19" s="1">
-        <v>1349.460000</v>
+        <v>1349.46</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.883000</v>
+        <v>-168.88300000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>28342.618110</v>
+        <v>28342.618109999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>7.872949</v>
+        <v>7.8729490000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>1362.310000</v>
+        <v>1362.31</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.393000</v>
+        <v>-178.393</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>28352.848592</v>
+        <v>28352.848591999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.875791</v>
+        <v>7.8757910000000004</v>
       </c>
       <c r="AL19" s="1">
-        <v>1382.720000</v>
+        <v>1382.72</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.264000</v>
+        <v>-208.26400000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>28363.702049</v>
@@ -4970,210 +5386,210 @@
         <v>7.878806</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1404.260000</v>
+        <v>1404.26</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.124000</v>
+        <v>-252.124</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>28375.110530</v>
+        <v>28375.110530000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.881975</v>
+        <v>7.8819749999999997</v>
       </c>
       <c r="AV19" s="1">
-        <v>1428.660000</v>
+        <v>1428.66</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.127000</v>
+        <v>-312.12700000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>28385.907481</v>
+        <v>28385.907480999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.884974</v>
+        <v>7.8849739999999997</v>
       </c>
       <c r="BA19" s="1">
-        <v>1447.850000</v>
+        <v>1447.85</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.290000</v>
+        <v>-364.29</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>28396.795125</v>
+        <v>28396.795125000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>7.887999</v>
+        <v>7.8879989999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1532.570000</v>
+        <v>1532.57</v>
       </c>
       <c r="BG19" s="1">
-        <v>-613.046000</v>
+        <v>-613.04600000000005</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>28407.722023</v>
+        <v>28407.722022999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.891034</v>
+        <v>7.8910340000000003</v>
       </c>
       <c r="BK19" s="1">
-        <v>1686.350000</v>
+        <v>1686.35</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1059.460000</v>
+        <v>-1059.46</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>28419.036232</v>
+        <v>28419.036231999999</v>
       </c>
       <c r="BO19" s="1">
         <v>7.894177</v>
       </c>
       <c r="BP19" s="1">
-        <v>1979.760000</v>
+        <v>1979.76</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1833.430000</v>
+        <v>-1833.43</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>28430.418425</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.897338</v>
+        <v>7.8973380000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>2366.280000</v>
+        <v>2366.2800000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2725.230000</v>
+        <v>-2725.23</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>28441.548851</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.900430</v>
+        <v>7.9004300000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2847.650000</v>
+        <v>2847.65</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3704.570000</v>
+        <v>-3704.57</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>28454.143065</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.903929</v>
+        <v>7.9039289999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>4269.220000</v>
+        <v>4269.22</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6074.250000</v>
+        <v>-6074.25</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>28280.839904</v>
       </c>
       <c r="B20" s="1">
-        <v>7.855789</v>
+        <v>7.8557889999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>1247.270000</v>
+        <v>1247.27</v>
       </c>
       <c r="D20" s="1">
-        <v>-308.734000</v>
+        <v>-308.73399999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>28291.265312</v>
       </c>
       <c r="G20" s="1">
-        <v>7.858685</v>
+        <v>7.8586850000000004</v>
       </c>
       <c r="H20" s="1">
-        <v>1272.630000</v>
+        <v>1272.6300000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-266.592000</v>
+        <v>-266.59199999999998</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>28301.782020</v>
+        <v>28301.782019999999</v>
       </c>
       <c r="L20" s="1">
-        <v>7.861606</v>
+        <v>7.8616060000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1307.830000</v>
+        <v>1307.83</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.082000</v>
+        <v>-203.08199999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>28312.384001</v>
+        <v>28312.384000999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.864551</v>
+        <v>7.8645509999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>1319.440000</v>
+        <v>1319.44</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.868000</v>
+        <v>-184.86799999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>28322.540055</v>
+        <v>28322.540055000001</v>
       </c>
       <c r="V20" s="1">
-        <v>7.867372</v>
+        <v>7.8673719999999996</v>
       </c>
       <c r="W20" s="1">
-        <v>1332.340000</v>
+        <v>1332.34</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.070000</v>
+        <v>-171.07</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>28332.772523</v>
@@ -5182,769 +5598,769 @@
         <v>7.870215</v>
       </c>
       <c r="AB20" s="1">
-        <v>1349.290000</v>
+        <v>1349.29</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.876000</v>
+        <v>-168.876</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>28342.961341</v>
+        <v>28342.961340999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>7.873045</v>
+        <v>7.8730450000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>1362.290000</v>
+        <v>1362.29</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.377000</v>
+        <v>-178.37700000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>28353.505791</v>
       </c>
       <c r="AK20" s="1">
-        <v>7.875974</v>
+        <v>7.8759740000000003</v>
       </c>
       <c r="AL20" s="1">
-        <v>1382.750000</v>
+        <v>1382.75</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.275000</v>
+        <v>-208.27500000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>28364.377104</v>
+        <v>28364.377103999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>7.878994</v>
+        <v>7.8789939999999996</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1404.280000</v>
+        <v>1404.28</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.092000</v>
+        <v>-252.09200000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>28375.559441</v>
+        <v>28375.559441000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>7.882100</v>
+        <v>7.8821000000000003</v>
       </c>
       <c r="AV20" s="1">
-        <v>1428.670000</v>
+        <v>1428.67</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.145000</v>
+        <v>-312.14499999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>28386.180244</v>
+        <v>28386.180243999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.885050</v>
+        <v>7.8850499999999997</v>
       </c>
       <c r="BA20" s="1">
-        <v>1447.920000</v>
+        <v>1447.92</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.259000</v>
+        <v>-364.25900000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>28397.159222</v>
+        <v>28397.159221999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.888100</v>
+        <v>7.8880999999999997</v>
       </c>
       <c r="BF20" s="1">
-        <v>1532.630000</v>
+        <v>1532.63</v>
       </c>
       <c r="BG20" s="1">
-        <v>-613.034000</v>
+        <v>-613.03399999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>28408.097974</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.891138</v>
+        <v>7.8911379999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1686.380000</v>
+        <v>1686.38</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1059.530000</v>
+        <v>-1059.53</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>28419.453404</v>
       </c>
       <c r="BO20" s="1">
-        <v>7.894293</v>
+        <v>7.8942930000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1979.810000</v>
+        <v>1979.81</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1833.460000</v>
+        <v>-1833.46</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>28430.849948</v>
+        <v>28430.849947999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.897458</v>
+        <v>7.8974580000000003</v>
       </c>
       <c r="BU20" s="1">
-        <v>2366.590000</v>
+        <v>2366.59</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2725.370000</v>
+        <v>-2725.37</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>28441.972234</v>
+        <v>28441.972234000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.900548</v>
+        <v>7.9005479999999997</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2847.560000</v>
+        <v>2847.56</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3705.020000</v>
+        <v>-3705.02</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>28454.661420</v>
+        <v>28454.66142</v>
       </c>
       <c r="CD20" s="1">
-        <v>7.904073</v>
+        <v>7.9040730000000003</v>
       </c>
       <c r="CE20" s="1">
-        <v>4273.870000</v>
+        <v>4273.87</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6059.220000</v>
+        <v>-6059.22</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>28281.183161</v>
+        <v>28281.183161000001</v>
       </c>
       <c r="B21" s="1">
-        <v>7.855884</v>
+        <v>7.8558839999999996</v>
       </c>
       <c r="C21" s="1">
-        <v>1247.340000</v>
+        <v>1247.3399999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-308.971000</v>
+        <v>-308.971</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>28291.953264</v>
       </c>
       <c r="G21" s="1">
-        <v>7.858876</v>
+        <v>7.8588760000000004</v>
       </c>
       <c r="H21" s="1">
-        <v>1271.570000</v>
+        <v>1271.57</v>
       </c>
       <c r="I21" s="1">
-        <v>-266.066000</v>
+        <v>-266.06599999999997</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>28302.476418</v>
+        <v>28302.476417999998</v>
       </c>
       <c r="L21" s="1">
-        <v>7.861799</v>
+        <v>7.8617990000000004</v>
       </c>
       <c r="M21" s="1">
-        <v>1307.700000</v>
+        <v>1307.7</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.154000</v>
+        <v>-203.154</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>28312.734149</v>
       </c>
       <c r="Q21" s="1">
-        <v>7.864648</v>
+        <v>7.8646479999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1319.370000</v>
+        <v>1319.37</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.886000</v>
+        <v>-184.886</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>28322.883287</v>
+        <v>28322.883287000001</v>
       </c>
       <c r="V21" s="1">
-        <v>7.867468</v>
+        <v>7.8674679999999997</v>
       </c>
       <c r="W21" s="1">
-        <v>1332.340000</v>
+        <v>1332.34</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.140000</v>
+        <v>-171.14</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>28333.125674</v>
+        <v>28333.125673999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.870313</v>
+        <v>7.8703130000000003</v>
       </c>
       <c r="AB21" s="1">
-        <v>1349.360000</v>
+        <v>1349.36</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.043000</v>
+        <v>-169.04300000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>28343.617089</v>
+        <v>28343.617088999999</v>
       </c>
       <c r="AF21" s="1">
         <v>7.873227</v>
       </c>
       <c r="AG21" s="1">
-        <v>1362.330000</v>
+        <v>1362.33</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.381000</v>
+        <v>-178.381</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>28353.898654</v>
+        <v>28353.898654000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.876083</v>
+        <v>7.8760830000000004</v>
       </c>
       <c r="AL21" s="1">
-        <v>1382.700000</v>
+        <v>1382.7</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.272000</v>
+        <v>-208.27199999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>28364.818084</v>
+        <v>28364.818083999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>7.879116</v>
+        <v>7.8791159999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1404.260000</v>
+        <v>1404.26</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.110000</v>
+        <v>-252.11</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>28375.926945</v>
+        <v>28375.926944999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>7.882202</v>
+        <v>7.8822020000000004</v>
       </c>
       <c r="AV21" s="1">
-        <v>1428.670000</v>
+        <v>1428.67</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.127000</v>
+        <v>-312.12700000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>28386.536371</v>
+        <v>28386.536370999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>7.885149</v>
+        <v>7.8851490000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1447.880000</v>
+        <v>1447.88</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.275000</v>
+        <v>-364.27499999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>28397.516308</v>
+        <v>28397.516307999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>7.888199</v>
+        <v>7.8881990000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1532.650000</v>
+        <v>1532.65</v>
       </c>
       <c r="BG21" s="1">
-        <v>-613.054000</v>
+        <v>-613.05399999999997</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>28408.523557</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.891257</v>
+        <v>7.8912570000000004</v>
       </c>
       <c r="BK21" s="1">
-        <v>1686.380000</v>
+        <v>1686.38</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1059.500000</v>
+        <v>-1059.5</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>28419.852684</v>
+        <v>28419.852684000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.894404</v>
+        <v>7.8944039999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1979.930000</v>
+        <v>1979.93</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1833.470000</v>
+        <v>-1833.47</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>28431.247773</v>
+        <v>28431.247772999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>7.897569</v>
+        <v>7.8975689999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>2366.780000</v>
+        <v>2366.7800000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2724.980000</v>
+        <v>-2724.98</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>28442.390857</v>
+        <v>28442.390856999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>7.900664</v>
+        <v>7.9006639999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2848.110000</v>
+        <v>2848.11</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3705.370000</v>
+        <v>-3705.37</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>28455.179244</v>
+        <v>28455.179243999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.904216</v>
+        <v>7.9042159999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4256.840000</v>
+        <v>4256.84</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6054.920000</v>
+        <v>-6054.92</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>28281.866622</v>
+        <v>28281.866622000001</v>
       </c>
       <c r="B22" s="1">
-        <v>7.856074</v>
+        <v>7.8560739999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>1247.330000</v>
+        <v>1247.33</v>
       </c>
       <c r="D22" s="1">
-        <v>-308.113000</v>
+        <v>-308.113</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>28292.299471</v>
+        <v>28292.299470999998</v>
       </c>
       <c r="G22" s="1">
-        <v>7.858972</v>
+        <v>7.8589719999999996</v>
       </c>
       <c r="H22" s="1">
-        <v>1272.740000</v>
+        <v>1272.74</v>
       </c>
       <c r="I22" s="1">
-        <v>-266.513000</v>
+        <v>-266.51299999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>28302.824577</v>
+        <v>28302.824576999999</v>
       </c>
       <c r="L22" s="1">
-        <v>7.861896</v>
+        <v>7.8618959999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>1307.410000</v>
+        <v>1307.4100000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-203.022000</v>
+        <v>-203.02199999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>28313.081844</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.864745</v>
+        <v>7.8647450000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1319.240000</v>
+        <v>1319.24</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.917000</v>
+        <v>-184.917</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>28323.540493</v>
       </c>
       <c r="V22" s="1">
-        <v>7.867650</v>
+        <v>7.8676500000000003</v>
       </c>
       <c r="W22" s="1">
-        <v>1332.350000</v>
+        <v>1332.35</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.229000</v>
+        <v>-171.22900000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>28333.788360</v>
+        <v>28333.788359999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.870497</v>
+        <v>7.8704970000000003</v>
       </c>
       <c r="AB22" s="1">
-        <v>1349.450000</v>
+        <v>1349.45</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.869000</v>
+        <v>-168.869</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>28343.991532</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.873331</v>
+        <v>7.8733310000000003</v>
       </c>
       <c r="AG22" s="1">
-        <v>1362.260000</v>
+        <v>1362.26</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.376000</v>
+        <v>-178.376</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>28354.246351</v>
+        <v>28354.246351000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>7.876180</v>
+        <v>7.8761799999999997</v>
       </c>
       <c r="AL22" s="1">
-        <v>1382.730000</v>
+        <v>1382.73</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.244000</v>
+        <v>-208.244</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>28365.176655</v>
+        <v>28365.176654999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.879216</v>
+        <v>7.8792160000000004</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1404.250000</v>
+        <v>1404.25</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.115000</v>
+        <v>-252.11500000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>28376.289025</v>
+        <v>28376.289024999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.882303</v>
+        <v>7.8823030000000003</v>
       </c>
       <c r="AV22" s="1">
-        <v>1428.620000</v>
+        <v>1428.62</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.115000</v>
+        <v>-312.11500000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>28386.955986</v>
+        <v>28386.955986000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.885266</v>
+        <v>7.8852659999999997</v>
       </c>
       <c r="BA22" s="1">
-        <v>1447.890000</v>
+        <v>1447.89</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.225000</v>
+        <v>-364.22500000000002</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>28397.952869</v>
+        <v>28397.952869000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>7.888320</v>
+        <v>7.8883200000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1532.680000</v>
+        <v>1532.68</v>
       </c>
       <c r="BG22" s="1">
-        <v>-613.044000</v>
+        <v>-613.04399999999998</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>28408.849432</v>
+        <v>28408.849431999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.891347</v>
+        <v>7.8913469999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1686.360000</v>
+        <v>1686.36</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1059.430000</v>
+        <v>-1059.43</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>28420.251958</v>
+        <v>28420.251958000001</v>
       </c>
       <c r="BO22" s="1">
         <v>7.894514</v>
       </c>
       <c r="BP22" s="1">
-        <v>1979.900000</v>
+        <v>1979.9</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1833.440000</v>
+        <v>-1833.44</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>28431.663879</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.897684</v>
+        <v>7.8976839999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2367.090000</v>
+        <v>2367.09</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2725.380000</v>
+        <v>-2725.38</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>28442.816424</v>
+        <v>28442.816424000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>7.900782</v>
+        <v>7.9007820000000004</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2848.100000</v>
+        <v>2848.1</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3704.340000</v>
+        <v>-3704.34</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>28455.700007</v>
+        <v>28455.700006999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.904361</v>
+        <v>7.9043609999999997</v>
       </c>
       <c r="CE22" s="1">
-        <v>4254.660000</v>
+        <v>4254.66</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6073.220000</v>
+        <v>-6073.22</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>28282.209358</v>
       </c>
       <c r="B23" s="1">
-        <v>7.856169</v>
+        <v>7.8561690000000004</v>
       </c>
       <c r="C23" s="1">
-        <v>1247.190000</v>
+        <v>1247.19</v>
       </c>
       <c r="D23" s="1">
-        <v>-308.786000</v>
+        <v>-308.786</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>28292.643200</v>
+        <v>28292.643199999999</v>
       </c>
       <c r="G23" s="1">
-        <v>7.859068</v>
+        <v>7.8590679999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>1272.410000</v>
+        <v>1272.4100000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-266.082000</v>
+        <v>-266.08199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>28303.171777</v>
       </c>
       <c r="L23" s="1">
-        <v>7.861992</v>
+        <v>7.8619919999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1307.710000</v>
+        <v>1307.71</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.164000</v>
+        <v>-203.16399999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>28313.746522</v>
+        <v>28313.746522000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>7.864930</v>
+        <v>7.8649300000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>1319.380000</v>
+        <v>1319.38</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.806000</v>
+        <v>-184.80600000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>28323.913014</v>
+        <v>28323.913014000002</v>
       </c>
       <c r="V23" s="1">
-        <v>7.867754</v>
+        <v>7.8677539999999997</v>
       </c>
       <c r="W23" s="1">
-        <v>1332.250000</v>
+        <v>1332.25</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.137000</v>
+        <v>-171.137</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>28334.171241</v>
@@ -5953,28 +6369,28 @@
         <v>7.870603</v>
       </c>
       <c r="AB23" s="1">
-        <v>1349.590000</v>
+        <v>1349.59</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.927000</v>
+        <v>-168.92699999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>28344.335789</v>
+        <v>28344.335789000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>7.873427</v>
+        <v>7.8734270000000004</v>
       </c>
       <c r="AG23" s="1">
-        <v>1362.270000</v>
+        <v>1362.27</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.436000</v>
+        <v>-178.43600000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>28354.595501</v>
@@ -5983,408 +6399,408 @@
         <v>7.876277</v>
       </c>
       <c r="AL23" s="1">
-        <v>1382.760000</v>
+        <v>1382.76</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.262000</v>
+        <v>-208.262</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>28365.536254</v>
+        <v>28365.536253999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.879316</v>
+        <v>7.8793160000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1404.260000</v>
+        <v>1404.26</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.134000</v>
+        <v>-252.13399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>28376.729014</v>
       </c>
       <c r="AU23" s="1">
-        <v>7.882425</v>
+        <v>7.8824249999999996</v>
       </c>
       <c r="AV23" s="1">
-        <v>1428.660000</v>
+        <v>1428.66</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.146000</v>
+        <v>-312.14600000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>28387.253679</v>
+        <v>28387.253679000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.885348</v>
+        <v>7.8853479999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>1447.870000</v>
+        <v>1447.87</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.282000</v>
+        <v>-364.28199999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>28398.239971</v>
+        <v>28398.239970999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.888400</v>
+        <v>7.8883999999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1532.620000</v>
+        <v>1532.62</v>
       </c>
       <c r="BG23" s="1">
-        <v>-613.071000</v>
+        <v>-613.07100000000003</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>28409.232310</v>
+        <v>28409.232309999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.891453</v>
+        <v>7.8914530000000003</v>
       </c>
       <c r="BK23" s="1">
-        <v>1686.340000</v>
+        <v>1686.34</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1059.540000</v>
+        <v>-1059.54</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>28420.673526</v>
+        <v>28420.673525999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.894632</v>
+        <v>7.8946319999999996</v>
       </c>
       <c r="BP23" s="1">
-        <v>1979.830000</v>
+        <v>1979.83</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1833.400000</v>
+        <v>-1833.4</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>28432.075559</v>
+        <v>28432.075559000001</v>
       </c>
       <c r="BT23" s="1">
         <v>7.897799</v>
       </c>
       <c r="BU23" s="1">
-        <v>2367.380000</v>
+        <v>2367.38</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2725.250000</v>
+        <v>-2725.25</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>28443.243976</v>
+        <v>28443.243976000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>7.900901</v>
+        <v>7.9009010000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2847.740000</v>
+        <v>2847.74</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3704.830000</v>
+        <v>-3704.83</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>28456.218860</v>
+        <v>28456.218860000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.904505</v>
+        <v>7.9045050000000003</v>
       </c>
       <c r="CE23" s="1">
-        <v>4254.450000</v>
+        <v>4254.45</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6068.620000</v>
+        <v>-6068.62</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>28282.552617</v>
+        <v>28282.552617000001</v>
       </c>
       <c r="B24" s="1">
-        <v>7.856265</v>
+        <v>7.8562649999999996</v>
       </c>
       <c r="C24" s="1">
-        <v>1247.550000</v>
+        <v>1247.55</v>
       </c>
       <c r="D24" s="1">
-        <v>-308.547000</v>
+        <v>-308.54700000000003</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>28293.309326</v>
+        <v>28293.309325999999</v>
       </c>
       <c r="G24" s="1">
-        <v>7.859253</v>
+        <v>7.8592529999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1273.070000</v>
+        <v>1273.07</v>
       </c>
       <c r="I24" s="1">
-        <v>-265.898000</v>
+        <v>-265.89800000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>28303.866672</v>
       </c>
       <c r="L24" s="1">
-        <v>7.862185</v>
+        <v>7.8621850000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>1307.810000</v>
+        <v>1307.81</v>
       </c>
       <c r="N24" s="1">
-        <v>-203.157000</v>
+        <v>-203.15700000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>28314.128898</v>
+        <v>28314.128897999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.865036</v>
+        <v>7.8650359999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1319.380000</v>
+        <v>1319.38</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.827000</v>
+        <v>-184.827</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>28324.256251</v>
+        <v>28324.256250999999</v>
       </c>
       <c r="V24" s="1">
-        <v>7.867849</v>
+        <v>7.8678489999999996</v>
       </c>
       <c r="W24" s="1">
-        <v>1332.380000</v>
+        <v>1332.38</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.091000</v>
+        <v>-171.09100000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>28334.518937</v>
+        <v>28334.518937000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>7.870700</v>
+        <v>7.8707000000000003</v>
       </c>
       <c r="AB24" s="1">
-        <v>1349.330000</v>
+        <v>1349.33</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.599000</v>
+        <v>-168.59899999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>28344.678987</v>
+        <v>28344.678986999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>7.873522</v>
+        <v>7.8735220000000004</v>
       </c>
       <c r="AG24" s="1">
-        <v>1362.300000</v>
+        <v>1362.3</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.372000</v>
+        <v>-178.37200000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>28355.017102</v>
+        <v>28355.017102000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>7.876394</v>
+        <v>7.8763940000000003</v>
       </c>
       <c r="AL24" s="1">
-        <v>1382.750000</v>
+        <v>1382.75</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.260000</v>
+        <v>-208.26</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>28365.959837</v>
+        <v>28365.959836999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>7.879433</v>
+        <v>7.8794329999999997</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1404.240000</v>
+        <v>1404.24</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.118000</v>
+        <v>-252.11799999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>28377.018671</v>
+        <v>28377.018671000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>7.882505</v>
+        <v>7.8825050000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1428.660000</v>
+        <v>1428.66</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.126000</v>
+        <v>-312.12599999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>28387.613185</v>
+        <v>28387.613184999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7.885448</v>
+        <v>7.8854480000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1447.840000</v>
+        <v>1447.84</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.261000</v>
+        <v>-364.26100000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>28398.601555</v>
+        <v>28398.601555000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>7.888500</v>
+        <v>7.8884999999999996</v>
       </c>
       <c r="BF24" s="1">
-        <v>1532.640000</v>
+        <v>1532.64</v>
       </c>
       <c r="BG24" s="1">
-        <v>-613.080000</v>
+        <v>-613.08000000000004</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>28409.624148</v>
+        <v>28409.624147999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>7.891562</v>
+        <v>7.8915620000000004</v>
       </c>
       <c r="BK24" s="1">
-        <v>1686.380000</v>
+        <v>1686.38</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1059.460000</v>
+        <v>-1059.46</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>28421.489941</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.894858</v>
+        <v>7.8948580000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1979.850000</v>
+        <v>1979.85</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1833.350000</v>
+        <v>-1833.35</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>28432.514022</v>
+        <v>28432.514021999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>7.897921</v>
+        <v>7.8979210000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>2367.510000</v>
+        <v>2367.5100000000002</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2725.450000</v>
+        <v>-2725.45</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>28443.680492</v>
       </c>
       <c r="BY24" s="1">
-        <v>7.901022</v>
+        <v>7.9010220000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2848.030000</v>
+        <v>2848.03</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3705.110000</v>
+        <v>-3705.11</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>28456.768887</v>
+        <v>28456.768886999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>7.904658</v>
+        <v>7.9046580000000004</v>
       </c>
       <c r="CE24" s="1">
-        <v>4256.940000</v>
+        <v>4256.9399999999996</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6054.770000</v>
+        <v>-6054.77</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>28283.203835</v>
       </c>
@@ -6392,133 +6808,133 @@
         <v>7.856446</v>
       </c>
       <c r="C25" s="1">
-        <v>1247.270000</v>
+        <v>1247.27</v>
       </c>
       <c r="D25" s="1">
-        <v>-308.682000</v>
+        <v>-308.68200000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>28293.676861</v>
       </c>
       <c r="G25" s="1">
-        <v>7.859355</v>
+        <v>7.8593549999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1272.180000</v>
+        <v>1272.18</v>
       </c>
       <c r="I25" s="1">
-        <v>-266.455000</v>
+        <v>-266.45499999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>28304.204481</v>
+        <v>28304.204481000001</v>
       </c>
       <c r="L25" s="1">
         <v>7.862279</v>
       </c>
       <c r="M25" s="1">
-        <v>1307.340000</v>
+        <v>1307.3399999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-202.971000</v>
+        <v>-202.971</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>28314.476098</v>
+        <v>28314.476097999999</v>
       </c>
       <c r="Q25" s="1">
         <v>7.865132</v>
       </c>
       <c r="R25" s="1">
-        <v>1319.420000</v>
+        <v>1319.42</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.882000</v>
+        <v>-184.88200000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>28324.601926</v>
+        <v>28324.601925999999</v>
       </c>
       <c r="V25" s="1">
-        <v>7.867945</v>
+        <v>7.8679449999999997</v>
       </c>
       <c r="W25" s="1">
-        <v>1332.480000</v>
+        <v>1332.48</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.130000</v>
+        <v>-171.13</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>28334.867128</v>
+        <v>28334.867128000002</v>
       </c>
       <c r="AA25" s="1">
-        <v>7.870796</v>
+        <v>7.8707960000000003</v>
       </c>
       <c r="AB25" s="1">
-        <v>1349.440000</v>
+        <v>1349.44</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.747000</v>
+        <v>-168.74700000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>28345.110540</v>
+        <v>28345.110540000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>7.873642</v>
+        <v>7.8736420000000003</v>
       </c>
       <c r="AG25" s="1">
-        <v>1362.300000</v>
+        <v>1362.3</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.369000</v>
+        <v>-178.369</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>28355.290071</v>
+        <v>28355.290070999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.876469</v>
+        <v>7.8764690000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1382.730000</v>
+        <v>1382.73</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.251000</v>
+        <v>-208.251</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>28366.257438</v>
+        <v>28366.257438000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>7.879516</v>
+        <v>7.8795159999999997</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1404.260000</v>
+        <v>1404.26</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.111000</v>
+        <v>-252.11099999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>28377.382705</v>
@@ -6527,285 +6943,285 @@
         <v>7.882606</v>
       </c>
       <c r="AV25" s="1">
-        <v>1428.630000</v>
+        <v>1428.63</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.114000</v>
+        <v>-312.11399999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>28387.973281</v>
+        <v>28387.973280999999</v>
       </c>
       <c r="AZ25" s="1">
         <v>7.885548</v>
       </c>
       <c r="BA25" s="1">
-        <v>1447.900000</v>
+        <v>1447.9</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.265000</v>
+        <v>-364.26499999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>28398.960659</v>
       </c>
       <c r="BE25" s="1">
-        <v>7.888600</v>
+        <v>7.8886000000000003</v>
       </c>
       <c r="BF25" s="1">
-        <v>1532.620000</v>
+        <v>1532.62</v>
       </c>
       <c r="BG25" s="1">
-        <v>-613.056000</v>
+        <v>-613.05600000000004</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>28410.374632</v>
+        <v>28410.374631999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>7.891771</v>
+        <v>7.8917710000000003</v>
       </c>
       <c r="BK25" s="1">
-        <v>1686.420000</v>
+        <v>1686.42</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1059.500000</v>
+        <v>-1059.5</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>28421.906580</v>
+        <v>28421.906579999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>7.894974</v>
+        <v>7.8949740000000004</v>
       </c>
       <c r="BP25" s="1">
-        <v>1979.850000</v>
+        <v>1979.85</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1833.300000</v>
+        <v>-1833.3</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>28432.908342</v>
+        <v>28432.908341999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>7.898030</v>
+        <v>7.8980300000000003</v>
       </c>
       <c r="BU25" s="1">
-        <v>2367.810000</v>
+        <v>2367.81</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2725.420000</v>
+        <v>-2725.42</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>28444.103086</v>
+        <v>28444.103085999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>7.901140</v>
+        <v>7.9011399999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2848.440000</v>
+        <v>2848.44</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3705.490000</v>
+        <v>-3705.49</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>28457.622500</v>
+        <v>28457.622500000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>7.904895</v>
+        <v>7.9048949999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>4255.450000</v>
+        <v>4255.45</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6072.800000</v>
+        <v>-6072.8</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>28283.576331</v>
       </c>
       <c r="B26" s="1">
-        <v>7.856549</v>
+        <v>7.8565490000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1247.230000</v>
+        <v>1247.23</v>
       </c>
       <c r="D26" s="1">
-        <v>-308.734000</v>
+        <v>-308.73399999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>28294.022574</v>
+        <v>28294.022573999999</v>
       </c>
       <c r="G26" s="1">
         <v>7.859451</v>
       </c>
       <c r="H26" s="1">
-        <v>1272.030000</v>
+        <v>1272.03</v>
       </c>
       <c r="I26" s="1">
-        <v>-266.382000</v>
+        <v>-266.38200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>28304.550655</v>
+        <v>28304.550654999999</v>
       </c>
       <c r="L26" s="1">
-        <v>7.862375</v>
+        <v>7.8623750000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1307.630000</v>
+        <v>1307.6300000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-203.560000</v>
+        <v>-203.56</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>28314.823793</v>
       </c>
       <c r="Q26" s="1">
-        <v>7.865229</v>
+        <v>7.8652290000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>1319.280000</v>
+        <v>1319.28</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.881000</v>
+        <v>-184.881</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>28325.022038</v>
+        <v>28325.022037999999</v>
       </c>
       <c r="V26" s="1">
-        <v>7.868062</v>
+        <v>7.8680620000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1332.440000</v>
+        <v>1332.44</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.960000</v>
+        <v>-170.96</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>28335.299639</v>
+        <v>28335.299639000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.870917</v>
+        <v>7.8709170000000004</v>
       </c>
       <c r="AB26" s="1">
-        <v>1349.210000</v>
+        <v>1349.21</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.506000</v>
+        <v>-168.506</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>28345.390782</v>
+        <v>28345.390781999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.873720</v>
+        <v>7.8737199999999996</v>
       </c>
       <c r="AG26" s="1">
-        <v>1362.260000</v>
+        <v>1362.26</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.399000</v>
+        <v>-178.399</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>28355.641563</v>
+        <v>28355.641563000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.876567</v>
+        <v>7.8765669999999997</v>
       </c>
       <c r="AL26" s="1">
-        <v>1382.730000</v>
+        <v>1382.73</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.239000</v>
+        <v>-208.239</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>28366.618525</v>
+        <v>28366.618525000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>7.879616</v>
+        <v>7.8796160000000004</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1404.240000</v>
+        <v>1404.24</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.090000</v>
+        <v>-252.09</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>28377.750734</v>
+        <v>28377.750734000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>7.882709</v>
+        <v>7.8827090000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1428.670000</v>
+        <v>1428.67</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.147000</v>
+        <v>-312.14699999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>28388.691025</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.885748</v>
+        <v>7.8857480000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>1447.870000</v>
+        <v>1447.87</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.321000</v>
+        <v>-364.32100000000003</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>28399.683858</v>
@@ -6814,90 +7230,91 @@
         <v>7.888801</v>
       </c>
       <c r="BF26" s="1">
-        <v>1532.620000</v>
+        <v>1532.62</v>
       </c>
       <c r="BG26" s="1">
-        <v>-613.057000</v>
+        <v>-613.05700000000002</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>28410.773875</v>
+        <v>28410.773874999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.891882</v>
+        <v>7.8918819999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1686.360000</v>
+        <v>1686.36</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1059.410000</v>
+        <v>-1059.4100000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>28422.303875</v>
+        <v>28422.303875000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.895084</v>
+        <v>7.8950839999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1979.770000</v>
+        <v>1979.77</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1833.410000</v>
+        <v>-1833.41</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>28433.321509</v>
+        <v>28433.321509000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>7.898145</v>
+        <v>7.8981450000000004</v>
       </c>
       <c r="BU26" s="1">
-        <v>2367.990000</v>
+        <v>2367.9899999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2725.730000</v>
+        <v>-2725.73</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>28444.841094</v>
+        <v>28444.841093999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.901345</v>
+        <v>7.9013450000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2848.010000</v>
+        <v>2848.01</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3705.190000</v>
+        <v>-3705.19</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>28457.850196</v>
+        <v>28457.850195999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>7.904958</v>
+        <v>7.9049579999999997</v>
       </c>
       <c r="CE26" s="1">
-        <v>4273.380000</v>
+        <v>4273.38</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6070.520000</v>
+        <v>-6070.52</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>